--- a/data/База.xlsx
+++ b/data/База.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminPC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB8A21-2749-4ADB-A27F-F39A43CE2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D46E8D-3D97-4E75-8671-5F9FD9D2472C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="1020" windowWidth="26445" windowHeight="15585" xr2:uid="{802232A7-A607-451C-9F14-D821B53D75EE}"/>
+    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{802232A7-A607-451C-9F14-D821B53D75EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Список матчей" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Рейтинг КОФНТ</t>
+  </si>
+  <si>
+    <t>Рейтинг ФНТР</t>
+  </si>
+  <si>
+    <t>Рейтинг РТТФ</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Разряд</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>azaza</t>
+  </si>
+  <si>
+    <t>Богданов</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>МС</t>
+  </si>
+  <si>
+    <t>Калининград</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,14 +426,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA7D7C7-935C-4B5D-8226-44AF241106E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>36526</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/База.xlsx
+++ b/data/База.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\TT\PingPong-Bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5857C-19C3-4C00-857D-8BA02AE37676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A643C2D-1422-4326-9D31-9FEB2678458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="3915" windowWidth="18720" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="4200" windowWidth="15435" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1293">
   <si>
     <t>ID</t>
   </si>
@@ -2846,6 +2846,1059 @@
   </si>
   <si>
     <t>1981-10-14</t>
+  </si>
+  <si>
+    <t>Аганесова</t>
+  </si>
+  <si>
+    <t>Асель</t>
+  </si>
+  <si>
+    <t>2013-07-21</t>
+  </si>
+  <si>
+    <t>Якубовская</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>1977-11-21</t>
+  </si>
+  <si>
+    <t>Черкасова</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>2007-08-30</t>
+  </si>
+  <si>
+    <t>Горшкова</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>1983-01-07</t>
+  </si>
+  <si>
+    <t>Люблино КО</t>
+  </si>
+  <si>
+    <t>Осинцева</t>
+  </si>
+  <si>
+    <t>Кира</t>
+  </si>
+  <si>
+    <t>2006-11-29</t>
+  </si>
+  <si>
+    <t>Провоторова</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>1961-01-15</t>
+  </si>
+  <si>
+    <t>Пискун</t>
+  </si>
+  <si>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>2012-11-30</t>
+  </si>
+  <si>
+    <t>Черненко</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>2011-08-29</t>
+  </si>
+  <si>
+    <t>Белова</t>
+  </si>
+  <si>
+    <t>Снежана</t>
+  </si>
+  <si>
+    <t>2009-02-06</t>
+  </si>
+  <si>
+    <t>Мещерякова</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>2005-07-23</t>
+  </si>
+  <si>
+    <t>Романенко</t>
+  </si>
+  <si>
+    <t>Веселина</t>
+  </si>
+  <si>
+    <t>2008-08-14</t>
+  </si>
+  <si>
+    <t>Филимонова</t>
+  </si>
+  <si>
+    <t>Есения</t>
+  </si>
+  <si>
+    <t>Батюшина</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>2014-06-21</t>
+  </si>
+  <si>
+    <t>Бухтеева</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>2011-08-17</t>
+  </si>
+  <si>
+    <t>Федорова</t>
+  </si>
+  <si>
+    <t>Мелана</t>
+  </si>
+  <si>
+    <t>2004-03-21</t>
+  </si>
+  <si>
+    <t>Борисова</t>
+  </si>
+  <si>
+    <t>2012-06-02</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>2009-03-04</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>2006-06-24</t>
+  </si>
+  <si>
+    <t>Фомина</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>Кириченко</t>
+  </si>
+  <si>
+    <t>2007-07-09</t>
+  </si>
+  <si>
+    <t>Зороастрова</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>Голоднева</t>
+  </si>
+  <si>
+    <t>Ярослава</t>
+  </si>
+  <si>
+    <t>2011-03-31</t>
+  </si>
+  <si>
+    <t>Шабанова</t>
+  </si>
+  <si>
+    <t>Алена</t>
+  </si>
+  <si>
+    <t>2007-12-30</t>
+  </si>
+  <si>
+    <t>Нижник</t>
+  </si>
+  <si>
+    <t>2008-05-15</t>
+  </si>
+  <si>
+    <t>Мельник</t>
+  </si>
+  <si>
+    <t>Евангелина</t>
+  </si>
+  <si>
+    <t>2010-12-28</t>
+  </si>
+  <si>
+    <t>Друдэ</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>2006-11-03</t>
+  </si>
+  <si>
+    <t>Тимофеева</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>1972-01-10</t>
+  </si>
+  <si>
+    <t>1965-07-11</t>
+  </si>
+  <si>
+    <t>Коваль</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>2011-02-22</t>
+  </si>
+  <si>
+    <t>Сурта</t>
+  </si>
+  <si>
+    <t>Агата</t>
+  </si>
+  <si>
+    <t>2014-04-04</t>
+  </si>
+  <si>
+    <t>Лебедева</t>
+  </si>
+  <si>
+    <t>2012-11-27</t>
+  </si>
+  <si>
+    <t>Бечкова</t>
+  </si>
+  <si>
+    <t>Ульяна</t>
+  </si>
+  <si>
+    <t>2009-05-31</t>
+  </si>
+  <si>
+    <t>Цехович</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>2002-11-20</t>
+  </si>
+  <si>
+    <t>2010-06-22</t>
+  </si>
+  <si>
+    <t>Кудряшова</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>2009-12-04</t>
+  </si>
+  <si>
+    <t>Гурьянова</t>
+  </si>
+  <si>
+    <t>2011-08-01</t>
+  </si>
+  <si>
+    <t>Каменчук</t>
+  </si>
+  <si>
+    <t>Виталина</t>
+  </si>
+  <si>
+    <t>2014-01-17</t>
+  </si>
+  <si>
+    <t>Карпова</t>
+  </si>
+  <si>
+    <t>2009-03-12</t>
+  </si>
+  <si>
+    <t>Придава</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>1977-12-26</t>
+  </si>
+  <si>
+    <t>Варвара</t>
+  </si>
+  <si>
+    <t>2013-01-22</t>
+  </si>
+  <si>
+    <t>Шепелько</t>
+  </si>
+  <si>
+    <t>2007-07-23</t>
+  </si>
+  <si>
+    <t>2007-03-23</t>
+  </si>
+  <si>
+    <t>Мисик</t>
+  </si>
+  <si>
+    <t>2013-06-19</t>
+  </si>
+  <si>
+    <t>Аверьянова</t>
+  </si>
+  <si>
+    <t>2011-07-30</t>
+  </si>
+  <si>
+    <t>Кребс</t>
+  </si>
+  <si>
+    <t>2008-11-25</t>
+  </si>
+  <si>
+    <t>Вакина</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>2006-05-04</t>
+  </si>
+  <si>
+    <t>Козлова</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Ермакова</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>2007-08-22</t>
+  </si>
+  <si>
+    <t>Горская</t>
+  </si>
+  <si>
+    <t>2004-06-29</t>
+  </si>
+  <si>
+    <t>Кузьмичева</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>1999-02-26</t>
+  </si>
+  <si>
+    <t>Легенькая</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>2014-02-16</t>
+  </si>
+  <si>
+    <t>Федулова</t>
+  </si>
+  <si>
+    <t>2003-09-01</t>
+  </si>
+  <si>
+    <t>1980-05-15</t>
+  </si>
+  <si>
+    <t>Дьяченко</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>2014-03-19</t>
+  </si>
+  <si>
+    <t>Буденная</t>
+  </si>
+  <si>
+    <t>Маргарита</t>
+  </si>
+  <si>
+    <t>2012-09-21</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>Кугучева</t>
+  </si>
+  <si>
+    <t>2011-08-23</t>
+  </si>
+  <si>
+    <t>Винограденко</t>
+  </si>
+  <si>
+    <t>2011-12-25</t>
+  </si>
+  <si>
+    <t>Таисия</t>
+  </si>
+  <si>
+    <t>Скоблик</t>
+  </si>
+  <si>
+    <t>2007-03-20</t>
+  </si>
+  <si>
+    <t>Волкова</t>
+  </si>
+  <si>
+    <t>2012-11-23</t>
+  </si>
+  <si>
+    <t>Сизикова</t>
+  </si>
+  <si>
+    <t>2008-02-19</t>
+  </si>
+  <si>
+    <t>Зернова</t>
+  </si>
+  <si>
+    <t>2013-01-05</t>
+  </si>
+  <si>
+    <t>Новикова</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>2012-12-20</t>
+  </si>
+  <si>
+    <t>Мунтяну</t>
+  </si>
+  <si>
+    <t>2006-05-31</t>
+  </si>
+  <si>
+    <t>Магадан</t>
+  </si>
+  <si>
+    <t>Пельтихина</t>
+  </si>
+  <si>
+    <t>2010-06-27</t>
+  </si>
+  <si>
+    <t>Милана</t>
+  </si>
+  <si>
+    <t>2012-02-14</t>
+  </si>
+  <si>
+    <t>Ильина</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>1989-11-30</t>
+  </si>
+  <si>
+    <t>Клыковская</t>
+  </si>
+  <si>
+    <t>2007-10-12</t>
+  </si>
+  <si>
+    <t>Некрасова</t>
+  </si>
+  <si>
+    <t>1957-07-09</t>
+  </si>
+  <si>
+    <t>Асанова</t>
+  </si>
+  <si>
+    <t>Малика</t>
+  </si>
+  <si>
+    <t>2006-10-16</t>
+  </si>
+  <si>
+    <t>Стах</t>
+  </si>
+  <si>
+    <t>1970-09-30</t>
+  </si>
+  <si>
+    <t>Зоя</t>
+  </si>
+  <si>
+    <t>2014-09-15</t>
+  </si>
+  <si>
+    <t>Петрова</t>
+  </si>
+  <si>
+    <t>2006-08-10</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>2009-05-07</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t>1999-08-20</t>
+  </si>
+  <si>
+    <t>Слуцкая</t>
+  </si>
+  <si>
+    <t>Сухорукова</t>
+  </si>
+  <si>
+    <t>2014-05-30</t>
+  </si>
+  <si>
+    <t>Хулга</t>
+  </si>
+  <si>
+    <t>2008-08-02</t>
+  </si>
+  <si>
+    <t>Лукьянцева</t>
+  </si>
+  <si>
+    <t>2002-08-20</t>
+  </si>
+  <si>
+    <t>Тюкавкина</t>
+  </si>
+  <si>
+    <t>2009-10-20</t>
+  </si>
+  <si>
+    <t>Косичкина</t>
+  </si>
+  <si>
+    <t>Филипская</t>
+  </si>
+  <si>
+    <t>Ева</t>
+  </si>
+  <si>
+    <t>2008-02-28</t>
+  </si>
+  <si>
+    <t>Цыпленкова</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>Гущина</t>
+  </si>
+  <si>
+    <t>Луиза</t>
+  </si>
+  <si>
+    <t>1999-09-28</t>
+  </si>
+  <si>
+    <t>Исаак</t>
+  </si>
+  <si>
+    <t>2011-02-20</t>
+  </si>
+  <si>
+    <t>Добрынина</t>
+  </si>
+  <si>
+    <t>2005-09-20</t>
+  </si>
+  <si>
+    <t>Крюкова</t>
+  </si>
+  <si>
+    <t>2013-02-16</t>
+  </si>
+  <si>
+    <t>Лапшина</t>
+  </si>
+  <si>
+    <t>Ася</t>
+  </si>
+  <si>
+    <t>2010-05-27</t>
+  </si>
+  <si>
+    <t>Славинская</t>
+  </si>
+  <si>
+    <t>2010-06-18</t>
+  </si>
+  <si>
+    <t>Богачева</t>
+  </si>
+  <si>
+    <t>2013-09-01</t>
+  </si>
+  <si>
+    <t>Ахмедвалиева</t>
+  </si>
+  <si>
+    <t>2009-04-29</t>
+  </si>
+  <si>
+    <t>Копылова</t>
+  </si>
+  <si>
+    <t>2011-10-19</t>
+  </si>
+  <si>
+    <t>Кравчук</t>
+  </si>
+  <si>
+    <t>2012-07-24</t>
+  </si>
+  <si>
+    <t>Дрожжина</t>
+  </si>
+  <si>
+    <t>2009-09-30</t>
+  </si>
+  <si>
+    <t>Панина</t>
+  </si>
+  <si>
+    <t>2004-04-07</t>
+  </si>
+  <si>
+    <t>Ковалева</t>
+  </si>
+  <si>
+    <t>2011-07-12</t>
+  </si>
+  <si>
+    <t>Анфиса</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Виноградова</t>
+  </si>
+  <si>
+    <t>1995-10-11</t>
+  </si>
+  <si>
+    <t>Пономарева</t>
+  </si>
+  <si>
+    <t>Руслана</t>
+  </si>
+  <si>
+    <t>2007-12-12</t>
+  </si>
+  <si>
+    <t>Кашуба</t>
+  </si>
+  <si>
+    <t>2014-02-22</t>
+  </si>
+  <si>
+    <t>Панкина</t>
+  </si>
+  <si>
+    <t>2010-07-21</t>
+  </si>
+  <si>
+    <t>Гнутик</t>
+  </si>
+  <si>
+    <t>2006-08-11</t>
+  </si>
+  <si>
+    <t>Прикота</t>
+  </si>
+  <si>
+    <t>2013-06-17</t>
+  </si>
+  <si>
+    <t>Соколова</t>
+  </si>
+  <si>
+    <t>2015-02-17</t>
+  </si>
+  <si>
+    <t>Помирчая</t>
+  </si>
+  <si>
+    <t>2012-06-01</t>
+  </si>
+  <si>
+    <t>2008-05-10</t>
+  </si>
+  <si>
+    <t>Пчелина</t>
+  </si>
+  <si>
+    <t>2015-05-08</t>
+  </si>
+  <si>
+    <t>Грознецкая</t>
+  </si>
+  <si>
+    <t>2007-12-07</t>
+  </si>
+  <si>
+    <t>Шайфутдинова</t>
+  </si>
+  <si>
+    <t>2012-06-08</t>
+  </si>
+  <si>
+    <t>2005-09-12</t>
+  </si>
+  <si>
+    <t>Абрамова</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>2010-10-27</t>
+  </si>
+  <si>
+    <t>Потапенко</t>
+  </si>
+  <si>
+    <t>1983-06-01</t>
+  </si>
+  <si>
+    <t>Зезюкевич</t>
+  </si>
+  <si>
+    <t>2014-12-15</t>
+  </si>
+  <si>
+    <t>Хохлова</t>
+  </si>
+  <si>
+    <t>Олеся</t>
+  </si>
+  <si>
+    <t>1997-06-21</t>
+  </si>
+  <si>
+    <t>Дабравольскене</t>
+  </si>
+  <si>
+    <t>Зачетнова</t>
+  </si>
+  <si>
+    <t>2007-11-09</t>
+  </si>
+  <si>
+    <t>Васильева</t>
+  </si>
+  <si>
+    <t>2007-10-09</t>
+  </si>
+  <si>
+    <t>Щавелева</t>
+  </si>
+  <si>
+    <t>2012-09-09</t>
+  </si>
+  <si>
+    <t>Крутихина</t>
+  </si>
+  <si>
+    <t>2013-10-12</t>
+  </si>
+  <si>
+    <t>2004-12-18</t>
+  </si>
+  <si>
+    <t>Солдатова</t>
+  </si>
+  <si>
+    <t>Диана</t>
+  </si>
+  <si>
+    <t>2011-05-23</t>
+  </si>
+  <si>
+    <t>Жерягина</t>
+  </si>
+  <si>
+    <t>2008-09-01</t>
+  </si>
+  <si>
+    <t>Разинькова</t>
+  </si>
+  <si>
+    <t>2016-07-15</t>
+  </si>
+  <si>
+    <t>Даша</t>
+  </si>
+  <si>
+    <t>Безверхая</t>
+  </si>
+  <si>
+    <t>2003-04-18</t>
+  </si>
+  <si>
+    <t>Кулешова</t>
+  </si>
+  <si>
+    <t>2008-09-27</t>
+  </si>
+  <si>
+    <t>Горбункова</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>2007-01-20</t>
+  </si>
+  <si>
+    <t>Эвелина</t>
+  </si>
+  <si>
+    <t>Каребина</t>
+  </si>
+  <si>
+    <t>2003-02-22</t>
+  </si>
+  <si>
+    <t>1969-09-23</t>
+  </si>
+  <si>
+    <t>Белоусова</t>
+  </si>
+  <si>
+    <t>Василиса</t>
+  </si>
+  <si>
+    <t>2013-02-20</t>
+  </si>
+  <si>
+    <t>Костюченко</t>
+  </si>
+  <si>
+    <t>2005-03-19</t>
+  </si>
+  <si>
+    <t>Тепфер</t>
+  </si>
+  <si>
+    <t>Алла</t>
+  </si>
+  <si>
+    <t>1958-04-27</t>
+  </si>
+  <si>
+    <t>Кудашева</t>
+  </si>
+  <si>
+    <t>2014-11-10</t>
+  </si>
+  <si>
+    <t>Вяткина</t>
+  </si>
+  <si>
+    <t>2010-01-10</t>
+  </si>
+  <si>
+    <t>Шейнина</t>
+  </si>
+  <si>
+    <t>1994-05-10</t>
+  </si>
+  <si>
+    <t>Архипова</t>
+  </si>
+  <si>
+    <t>2011-05-27</t>
+  </si>
+  <si>
+    <t>Тельманова</t>
+  </si>
+  <si>
+    <t>Пискунова</t>
+  </si>
+  <si>
+    <t>2013-09-18</t>
+  </si>
+  <si>
+    <t>2001-01-13</t>
+  </si>
+  <si>
+    <t>Павловец</t>
+  </si>
+  <si>
+    <t>2010-03-03</t>
+  </si>
+  <si>
+    <t>2005-10-29</t>
+  </si>
+  <si>
+    <t>Балясникова</t>
+  </si>
+  <si>
+    <t>Милена</t>
+  </si>
+  <si>
+    <t>Рузиева</t>
+  </si>
+  <si>
+    <t>Фарахноз</t>
+  </si>
+  <si>
+    <t>2010-09-29</t>
+  </si>
+  <si>
+    <t>Скорябкина</t>
+  </si>
+  <si>
+    <t>2013-05-28</t>
+  </si>
+  <si>
+    <t>2010-07-15</t>
+  </si>
+  <si>
+    <t>Белых</t>
+  </si>
+  <si>
+    <t>Инна</t>
+  </si>
+  <si>
+    <t>1980-01-29</t>
+  </si>
+  <si>
+    <t>Карась</t>
+  </si>
+  <si>
+    <t>Кристина</t>
+  </si>
+  <si>
+    <t>2006-09-20</t>
+  </si>
+  <si>
+    <t>Шканова</t>
+  </si>
+  <si>
+    <t>2011-05-03</t>
+  </si>
+  <si>
+    <t>Задоя</t>
+  </si>
+  <si>
+    <t>2008-06-23</t>
+  </si>
+  <si>
+    <t>Рязанцева</t>
+  </si>
+  <si>
+    <t>2009-12-15</t>
+  </si>
+  <si>
+    <t>Келлер</t>
+  </si>
+  <si>
+    <t>2008-04-09</t>
+  </si>
+  <si>
+    <t>2006-06-30</t>
+  </si>
+  <si>
+    <t>Лобанова</t>
+  </si>
+  <si>
+    <t>2004-12-17</t>
+  </si>
+  <si>
+    <t>Симонавичуте</t>
+  </si>
+  <si>
+    <t>Элина</t>
+  </si>
+  <si>
+    <t>2011-04-13</t>
+  </si>
+  <si>
+    <t>Лапокина</t>
+  </si>
+  <si>
+    <t>2013-02-25</t>
+  </si>
+  <si>
+    <t>Вашкель</t>
+  </si>
+  <si>
+    <t>2012-09-27</t>
+  </si>
+  <si>
+    <t>Усольцева</t>
+  </si>
+  <si>
+    <t>2015-11-10</t>
   </si>
 </sst>
 </file>
@@ -3208,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J448"/>
+  <dimension ref="A1:J608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:XFD450"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M520" sqref="M520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12176,6 +13229,2723 @@
         <v>14</v>
       </c>
     </row>
+    <row r="449" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>942</v>
+      </c>
+      <c r="C449" t="s">
+        <v>943</v>
+      </c>
+      <c r="E449">
+        <v>104</v>
+      </c>
+      <c r="H449" t="s">
+        <v>944</v>
+      </c>
+      <c r="J449" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>945</v>
+      </c>
+      <c r="C450" t="s">
+        <v>946</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="H450" t="s">
+        <v>947</v>
+      </c>
+      <c r="J450" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>948</v>
+      </c>
+      <c r="C451" t="s">
+        <v>949</v>
+      </c>
+      <c r="E451">
+        <v>36</v>
+      </c>
+      <c r="H451" t="s">
+        <v>950</v>
+      </c>
+      <c r="J451" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>951</v>
+      </c>
+      <c r="C452" t="s">
+        <v>952</v>
+      </c>
+      <c r="E452">
+        <v>64</v>
+      </c>
+      <c r="H452" t="s">
+        <v>953</v>
+      </c>
+      <c r="J452" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="453" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>955</v>
+      </c>
+      <c r="C453" t="s">
+        <v>956</v>
+      </c>
+      <c r="E453">
+        <v>14</v>
+      </c>
+      <c r="H453" t="s">
+        <v>957</v>
+      </c>
+      <c r="J453" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>958</v>
+      </c>
+      <c r="C454" t="s">
+        <v>959</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="H454" t="s">
+        <v>960</v>
+      </c>
+      <c r="J454" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="455" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>961</v>
+      </c>
+      <c r="C455" t="s">
+        <v>962</v>
+      </c>
+      <c r="E455">
+        <v>15</v>
+      </c>
+      <c r="H455" t="s">
+        <v>963</v>
+      </c>
+      <c r="J455" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>964</v>
+      </c>
+      <c r="C456" t="s">
+        <v>965</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="H456" t="s">
+        <v>966</v>
+      </c>
+      <c r="J456" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="457" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>967</v>
+      </c>
+      <c r="C457" t="s">
+        <v>968</v>
+      </c>
+      <c r="E457">
+        <v>71</v>
+      </c>
+      <c r="H457" t="s">
+        <v>969</v>
+      </c>
+      <c r="J457" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>970</v>
+      </c>
+      <c r="C458" t="s">
+        <v>971</v>
+      </c>
+      <c r="E458">
+        <v>641</v>
+      </c>
+      <c r="H458" t="s">
+        <v>972</v>
+      </c>
+      <c r="J458" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>973</v>
+      </c>
+      <c r="C459" t="s">
+        <v>974</v>
+      </c>
+      <c r="E459">
+        <v>111</v>
+      </c>
+      <c r="H459" t="s">
+        <v>975</v>
+      </c>
+      <c r="J459" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="460" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>976</v>
+      </c>
+      <c r="C460" t="s">
+        <v>977</v>
+      </c>
+      <c r="E460">
+        <v>46</v>
+      </c>
+      <c r="H460" t="s">
+        <v>601</v>
+      </c>
+      <c r="J460" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="461" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>978</v>
+      </c>
+      <c r="C461" t="s">
+        <v>979</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="H461" t="s">
+        <v>980</v>
+      </c>
+      <c r="J461" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>981</v>
+      </c>
+      <c r="C462" t="s">
+        <v>982</v>
+      </c>
+      <c r="E462">
+        <v>173</v>
+      </c>
+      <c r="H462" t="s">
+        <v>983</v>
+      </c>
+      <c r="J462" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="463" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>984</v>
+      </c>
+      <c r="C463" t="s">
+        <v>985</v>
+      </c>
+      <c r="E463">
+        <v>59</v>
+      </c>
+      <c r="H463" t="s">
+        <v>986</v>
+      </c>
+      <c r="J463" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>987</v>
+      </c>
+      <c r="C464" t="s">
+        <v>949</v>
+      </c>
+      <c r="E464">
+        <v>237</v>
+      </c>
+      <c r="H464" t="s">
+        <v>988</v>
+      </c>
+      <c r="J464" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="465" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>283</v>
+      </c>
+      <c r="C465" t="s">
+        <v>989</v>
+      </c>
+      <c r="E465">
+        <v>228</v>
+      </c>
+      <c r="H465" t="s">
+        <v>990</v>
+      </c>
+      <c r="J465" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="466" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>898</v>
+      </c>
+      <c r="C466" t="s">
+        <v>991</v>
+      </c>
+      <c r="E466">
+        <v>22</v>
+      </c>
+      <c r="H466" t="s">
+        <v>992</v>
+      </c>
+      <c r="J466" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="467" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>993</v>
+      </c>
+      <c r="C467" t="s">
+        <v>994</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="H467" t="s">
+        <v>995</v>
+      </c>
+      <c r="J467" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>996</v>
+      </c>
+      <c r="C468" t="s">
+        <v>965</v>
+      </c>
+      <c r="E468">
+        <v>101</v>
+      </c>
+      <c r="H468" t="s">
+        <v>997</v>
+      </c>
+      <c r="J468" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>998</v>
+      </c>
+      <c r="C469" t="s">
+        <v>999</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="H469" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J469" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="470" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="H470" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J470" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="H471" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J471" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="472" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C472" t="s">
+        <v>949</v>
+      </c>
+      <c r="E472">
+        <v>103</v>
+      </c>
+      <c r="H472" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J472" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E473">
+        <v>397</v>
+      </c>
+      <c r="H473" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J473" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E474">
+        <v>628</v>
+      </c>
+      <c r="H474" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J474" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E475">
+        <v>88</v>
+      </c>
+      <c r="H475" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>749</v>
+      </c>
+      <c r="C476" t="s">
+        <v>959</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="H476" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J476" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="477" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E477">
+        <v>85</v>
+      </c>
+      <c r="H477" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J477" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="478" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E478">
+        <v>11</v>
+      </c>
+      <c r="H478" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J478" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="479" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C479" t="s">
+        <v>982</v>
+      </c>
+      <c r="E479">
+        <v>142</v>
+      </c>
+      <c r="H479" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J479" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="480" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E480">
+        <v>167</v>
+      </c>
+      <c r="H480" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J480" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="481" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E481">
+        <v>127</v>
+      </c>
+      <c r="H481" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J481" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>660</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="H482" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J482" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E483">
+        <v>294</v>
+      </c>
+      <c r="H483" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J483" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="484" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C484" t="s">
+        <v>999</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="H484" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J484" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E485">
+        <v>7</v>
+      </c>
+      <c r="H485" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J485" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C486" t="s">
+        <v>979</v>
+      </c>
+      <c r="E486">
+        <v>145</v>
+      </c>
+      <c r="H486" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J486" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="H487" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J487" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="488" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>773</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E488">
+        <v>203</v>
+      </c>
+      <c r="H488" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J488" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="489" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C489" t="s">
+        <v>956</v>
+      </c>
+      <c r="E489">
+        <v>67</v>
+      </c>
+      <c r="H489" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J489" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E490">
+        <v>36</v>
+      </c>
+      <c r="H490" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J490" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="491" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C491" t="s">
+        <v>971</v>
+      </c>
+      <c r="E491">
+        <v>38</v>
+      </c>
+      <c r="H491" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J491" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C492" t="s">
+        <v>999</v>
+      </c>
+      <c r="E492">
+        <v>145</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J492" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="493" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C493" t="s">
+        <v>979</v>
+      </c>
+      <c r="E493">
+        <v>113</v>
+      </c>
+      <c r="H493" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J493" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="494" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E494">
+        <v>227</v>
+      </c>
+      <c r="H494" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J494" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="495" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E495">
+        <v>107</v>
+      </c>
+      <c r="H495" t="s">
+        <v>917</v>
+      </c>
+      <c r="J495" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E496">
+        <v>140</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J496" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E497">
+        <v>303</v>
+      </c>
+      <c r="H497" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J497" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="498" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E498">
+        <v>613</v>
+      </c>
+      <c r="H498" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J498" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="499" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E499">
+        <v>57</v>
+      </c>
+      <c r="H499" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J499" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="500" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E500">
+        <v>176</v>
+      </c>
+      <c r="H500" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J500" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>898</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E501">
+        <v>792</v>
+      </c>
+      <c r="H501" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J501" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E502">
+        <v>33</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J502" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="503" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E503">
+        <v>20</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J503" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E504">
+        <v>4</v>
+      </c>
+      <c r="H504" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J504" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="505" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E505">
+        <v>203</v>
+      </c>
+      <c r="H505" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J505" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C506" t="s">
+        <v>949</v>
+      </c>
+      <c r="E506">
+        <v>4</v>
+      </c>
+      <c r="H506" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J506" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="507" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>264</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="H507" t="s">
+        <v>265</v>
+      </c>
+      <c r="J507" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="508" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C508" t="s">
+        <v>965</v>
+      </c>
+      <c r="E508">
+        <v>107</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J508" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E509">
+        <v>11</v>
+      </c>
+      <c r="H509" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J509" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E510">
+        <v>2</v>
+      </c>
+      <c r="H510" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J510" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C511" t="s">
+        <v>946</v>
+      </c>
+      <c r="E511">
+        <v>49</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J511" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="512" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J512" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="513" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E513">
+        <v>294</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J513" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="514" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C514" t="s">
+        <v>949</v>
+      </c>
+      <c r="E514">
+        <v>30</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J514" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>945</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E515">
+        <v>4</v>
+      </c>
+      <c r="H515" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J515" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="516" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J516" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C517" t="s">
+        <v>991</v>
+      </c>
+      <c r="E517">
+        <v>79</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J517" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="518" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J518" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E519">
+        <v>12</v>
+      </c>
+      <c r="H519" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J519" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C520" t="s">
+        <v>952</v>
+      </c>
+      <c r="E520">
+        <v>107</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J520" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>653</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E521">
+        <v>37</v>
+      </c>
+      <c r="H521" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J521" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="522" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E522">
+        <v>52</v>
+      </c>
+      <c r="H522" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J522" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>898</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E523">
+        <v>704</v>
+      </c>
+      <c r="H523" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J523" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>692</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E524">
+        <v>535</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J524" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C525" t="s">
+        <v>979</v>
+      </c>
+      <c r="E525">
+        <v>3</v>
+      </c>
+      <c r="H525" t="s">
+        <v>983</v>
+      </c>
+      <c r="J525" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="526" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C526" t="s">
+        <v>999</v>
+      </c>
+      <c r="E526">
+        <v>144</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J526" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E527">
+        <v>10</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J527" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="528" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E528">
+        <v>231</v>
+      </c>
+      <c r="H528" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J528" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="529" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C529" t="s">
+        <v>949</v>
+      </c>
+      <c r="E529">
+        <v>204</v>
+      </c>
+      <c r="H529" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J529" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E530">
+        <v>23</v>
+      </c>
+      <c r="H530" t="s">
+        <v>380</v>
+      </c>
+      <c r="J530" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E531">
+        <v>78</v>
+      </c>
+      <c r="H531" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J531" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="532" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E532">
+        <v>6</v>
+      </c>
+      <c r="H532" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J532" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="533" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E533">
+        <v>809</v>
+      </c>
+      <c r="H533" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J533" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="534" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E534">
+        <v>25</v>
+      </c>
+      <c r="H534" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J534" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C535" t="s">
+        <v>946</v>
+      </c>
+      <c r="E535">
+        <v>173</v>
+      </c>
+      <c r="H535" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J535" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="536" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E536">
+        <v>2</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J536" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="537" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E537">
+        <v>14</v>
+      </c>
+      <c r="H537" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J537" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E538">
+        <v>6</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J538" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="539" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E539">
+        <v>340</v>
+      </c>
+      <c r="H539" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J539" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E540">
+        <v>35</v>
+      </c>
+      <c r="H540" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J540" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="541" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C541" t="s">
+        <v>949</v>
+      </c>
+      <c r="E541">
+        <v>501</v>
+      </c>
+      <c r="H541" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J541" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B542" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C542" t="s">
+        <v>971</v>
+      </c>
+      <c r="E542">
+        <v>26</v>
+      </c>
+      <c r="H542" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J542" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C543" t="s">
+        <v>979</v>
+      </c>
+      <c r="E543">
+        <v>2</v>
+      </c>
+      <c r="H543" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J543" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B544" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C544" t="s">
+        <v>999</v>
+      </c>
+      <c r="E544">
+        <v>637</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J544" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="545" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C545" t="s">
+        <v>962</v>
+      </c>
+      <c r="E545">
+        <v>141</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J545" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="546" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E546">
+        <v>6</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J546" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E547">
+        <v>149</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J547" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B548" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E548">
+        <v>38</v>
+      </c>
+      <c r="H548" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J548" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B549" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="H549" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J549" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B550" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E550">
+        <v>50</v>
+      </c>
+      <c r="H550" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J550" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="551" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B551" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C551" t="s">
+        <v>991</v>
+      </c>
+      <c r="E551">
+        <v>11</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J551" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C552" t="s">
+        <v>979</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="H552" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J552" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C553" t="s">
+        <v>949</v>
+      </c>
+      <c r="E553">
+        <v>24</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J553" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="554" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B554" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C554" t="s">
+        <v>982</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="H554" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J554" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B555" t="s">
+        <v>784</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E555">
+        <v>571</v>
+      </c>
+      <c r="H555" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J555" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B556" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E556">
+        <v>5</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J556" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="557" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B557" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C557" t="s">
+        <v>971</v>
+      </c>
+      <c r="E557">
+        <v>17</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J557" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="558" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E558">
+        <v>40</v>
+      </c>
+      <c r="H558" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J558" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="559" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B559" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E559">
+        <v>21</v>
+      </c>
+      <c r="H559" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J559" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="560" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B560" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E560">
+        <v>32</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J560" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="561" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C561" t="s">
+        <v>952</v>
+      </c>
+      <c r="E561">
+        <v>224</v>
+      </c>
+      <c r="H561" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J561" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="562" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B562" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C562" t="s">
+        <v>991</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="H562" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J562" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="563" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B563" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E563">
+        <v>25</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J563" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="564" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B564" t="s">
+        <v>773</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E564">
+        <v>291</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J564" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="565" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C565" t="s">
+        <v>994</v>
+      </c>
+      <c r="E565">
+        <v>7</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J565" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="566" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C566" t="s">
+        <v>949</v>
+      </c>
+      <c r="E566">
+        <v>165</v>
+      </c>
+      <c r="H566" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J566" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C567" t="s">
+        <v>965</v>
+      </c>
+      <c r="E567">
+        <v>45</v>
+      </c>
+      <c r="H567" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J567" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E568">
+        <v>33</v>
+      </c>
+      <c r="H568" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J568" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B569" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C569" t="s">
+        <v>962</v>
+      </c>
+      <c r="E569">
+        <v>57</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J569" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="570" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C570" t="s">
+        <v>952</v>
+      </c>
+      <c r="E570">
+        <v>650</v>
+      </c>
+      <c r="H570" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J570" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="571" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E571">
+        <v>98</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J571" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J572" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="573" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E573">
+        <v>41</v>
+      </c>
+      <c r="H573" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J573" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="574" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>549</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E574">
+        <v>63</v>
+      </c>
+      <c r="H574" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J574" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="575" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E575">
+        <v>231</v>
+      </c>
+      <c r="H575" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J575" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E576">
+        <v>326</v>
+      </c>
+      <c r="H576" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J576" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="577" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B577" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E577">
+        <v>13</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J577" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="578" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E578">
+        <v>67</v>
+      </c>
+      <c r="H578" t="s">
+        <v>969</v>
+      </c>
+      <c r="J578" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="579" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E579">
+        <v>386</v>
+      </c>
+      <c r="H579" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J579" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>660</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E580">
+        <v>5</v>
+      </c>
+      <c r="H580" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J580" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B581" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E581">
+        <v>141</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J581" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="582" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E582">
+        <v>50</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J582" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="583" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B583" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E583">
+        <v>101</v>
+      </c>
+      <c r="H583" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J583" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="584" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B584" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C584" t="s">
+        <v>949</v>
+      </c>
+      <c r="E584">
+        <v>8</v>
+      </c>
+      <c r="H584" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J584" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="585" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C585" t="s">
+        <v>962</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="H585" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J585" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="586" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B586" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E586">
+        <v>64</v>
+      </c>
+      <c r="H586" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J586" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="587" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B587" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E587">
+        <v>339</v>
+      </c>
+      <c r="H587" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J587" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="588" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C588" t="s">
+        <v>991</v>
+      </c>
+      <c r="E588">
+        <v>54</v>
+      </c>
+      <c r="J588" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="589" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B589" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J589" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="590" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B590" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E590">
+        <v>498</v>
+      </c>
+      <c r="H590" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J590" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="591" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E591">
+        <v>98</v>
+      </c>
+      <c r="H591" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J591" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B592" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C592" t="s">
+        <v>991</v>
+      </c>
+      <c r="E592">
+        <v>24</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J592" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="593" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B593" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E593">
+        <v>40</v>
+      </c>
+      <c r="H593" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J593" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="594" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E594">
+        <v>38</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J594" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="595" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B595" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E595">
+        <v>1</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J595" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B596" t="s">
+        <v>536</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E596">
+        <v>31</v>
+      </c>
+      <c r="H596" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J596" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B597" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E597">
+        <v>497</v>
+      </c>
+      <c r="H597" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J597" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="598" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E598">
+        <v>628</v>
+      </c>
+      <c r="H598" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J598" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="599" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="H599" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J599" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="H600" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J600" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="601" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E601">
+        <v>65</v>
+      </c>
+      <c r="H601" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J601" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E602">
+        <v>9</v>
+      </c>
+      <c r="H602" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J602" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="603" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E603">
+        <v>161</v>
+      </c>
+      <c r="H603" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J603" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="604" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E604">
+        <v>152</v>
+      </c>
+      <c r="H604" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J604" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E605">
+        <v>324</v>
+      </c>
+      <c r="H605" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J605" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="606" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E606">
+        <v>5</v>
+      </c>
+      <c r="H606" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J606" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="607" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C607" t="s">
+        <v>962</v>
+      </c>
+      <c r="E607">
+        <v>3</v>
+      </c>
+      <c r="H607" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J607" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="608" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C608" t="s">
+        <v>989</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="H608" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J608" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/База.xlsx
+++ b/data/База.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\TT\PingPong-Bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679D7032-EF2A-4A9E-8E1C-5E7B2EB95A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307DEC3-EF8C-424F-ABF2-8CD61C2ADFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27225" yWindow="4290" windowWidth="21630" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="3915" windowWidth="25770" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="1308">
   <si>
     <t>ID</t>
   </si>
@@ -3935,6 +3935,15 @@
   </si>
   <si>
     <t>2015-11-10</t>
+  </si>
+  <si>
+    <t>Великий</t>
+  </si>
+  <si>
+    <t>6126011940</t>
+  </si>
+  <si>
+    <t>Богданов Роман</t>
   </si>
 </sst>
 </file>
@@ -3990,9 +3999,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4297,16 +4310,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N608"/>
+  <dimension ref="A1:N610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="M611" sqref="M611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4368,6 +4384,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4388,6 +4407,9 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4408,6 +4430,9 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -4428,6 +4453,9 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -4448,6 +4476,9 @@
       <c r="J6" t="s">
         <v>18</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -4468,6 +4499,9 @@
       <c r="J7" t="s">
         <v>18</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -4491,6 +4525,9 @@
       <c r="J8" t="s">
         <v>36</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -4511,6 +4548,9 @@
       <c r="J9" t="s">
         <v>36</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -4531,6 +4571,9 @@
       <c r="J10" t="s">
         <v>18</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -4551,6 +4594,9 @@
       <c r="J11" t="s">
         <v>18</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -4571,6 +4617,9 @@
       <c r="J12" t="s">
         <v>47</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -4591,6 +4640,9 @@
       <c r="J13" t="s">
         <v>50</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -4611,6 +4663,9 @@
       <c r="J14" t="s">
         <v>18</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -4631,6 +4686,9 @@
       <c r="J15" t="s">
         <v>18</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -4651,8 +4709,11 @@
       <c r="J16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -4671,8 +4732,11 @@
       <c r="J17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -4691,8 +4755,11 @@
       <c r="J18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>65</v>
       </c>
@@ -4711,8 +4778,11 @@
       <c r="J19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -4731,8 +4801,11 @@
       <c r="J20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>69</v>
       </c>
@@ -4751,8 +4824,11 @@
       <c r="J21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>72</v>
       </c>
@@ -4771,8 +4847,11 @@
       <c r="J22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -4791,8 +4870,11 @@
       <c r="J23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -4814,8 +4896,11 @@
       <c r="J24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>81</v>
       </c>
@@ -4834,8 +4919,11 @@
       <c r="J25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -4854,8 +4942,11 @@
       <c r="J26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>87</v>
       </c>
@@ -4874,8 +4965,11 @@
       <c r="J27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>90</v>
       </c>
@@ -4894,8 +4988,11 @@
       <c r="J28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>91</v>
       </c>
@@ -4914,8 +5011,11 @@
       <c r="J29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>93</v>
       </c>
@@ -4937,8 +5037,11 @@
       <c r="J30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>95</v>
       </c>
@@ -4957,8 +5060,11 @@
       <c r="J31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -4977,8 +5083,11 @@
       <c r="J32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>100</v>
       </c>
@@ -4997,8 +5106,11 @@
       <c r="J33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>103</v>
       </c>
@@ -5017,8 +5129,11 @@
       <c r="J34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>106</v>
       </c>
@@ -5037,8 +5152,11 @@
       <c r="J35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>108</v>
       </c>
@@ -5057,8 +5175,11 @@
       <c r="J36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>110</v>
       </c>
@@ -5077,8 +5198,11 @@
       <c r="J37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>112</v>
       </c>
@@ -5097,8 +5221,11 @@
       <c r="J38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>116</v>
       </c>
@@ -5117,8 +5244,11 @@
       <c r="J39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>119</v>
       </c>
@@ -5137,8 +5267,11 @@
       <c r="J40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>122</v>
       </c>
@@ -5157,8 +5290,11 @@
       <c r="J41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>122</v>
       </c>
@@ -5183,8 +5319,11 @@
       <c r="J42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>126</v>
       </c>
@@ -5206,8 +5345,11 @@
       <c r="J43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>129</v>
       </c>
@@ -5226,8 +5368,11 @@
       <c r="J44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>131</v>
       </c>
@@ -5246,8 +5391,11 @@
       <c r="J45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>134</v>
       </c>
@@ -5266,8 +5414,11 @@
       <c r="J46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>136</v>
       </c>
@@ -5286,8 +5437,11 @@
       <c r="J47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>137</v>
       </c>
@@ -5306,8 +5460,11 @@
       <c r="J48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>139</v>
       </c>
@@ -5326,8 +5483,11 @@
       <c r="J49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>141</v>
       </c>
@@ -5346,8 +5506,11 @@
       <c r="J50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>143</v>
       </c>
@@ -5369,8 +5532,11 @@
       <c r="J51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>145</v>
       </c>
@@ -5392,8 +5558,11 @@
       <c r="J52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>148</v>
       </c>
@@ -5415,8 +5584,11 @@
       <c r="J53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>150</v>
       </c>
@@ -5435,8 +5607,11 @@
       <c r="J54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>152</v>
       </c>
@@ -5455,8 +5630,11 @@
       <c r="J55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>155</v>
       </c>
@@ -5475,8 +5653,11 @@
       <c r="J56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>158</v>
       </c>
@@ -5495,8 +5676,11 @@
       <c r="J57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -5515,8 +5699,11 @@
       <c r="J58" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>164</v>
       </c>
@@ -5535,8 +5722,11 @@
       <c r="J59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>164</v>
       </c>
@@ -5555,8 +5745,11 @@
       <c r="J60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>168</v>
       </c>
@@ -5575,8 +5768,11 @@
       <c r="J61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>171</v>
       </c>
@@ -5595,8 +5791,11 @@
       <c r="J62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>173</v>
       </c>
@@ -5615,8 +5814,11 @@
       <c r="J63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>175</v>
       </c>
@@ -5635,8 +5837,11 @@
       <c r="J64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>178</v>
       </c>
@@ -5655,8 +5860,11 @@
       <c r="J65" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>181</v>
       </c>
@@ -5675,8 +5883,11 @@
       <c r="J66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>184</v>
       </c>
@@ -5695,8 +5906,11 @@
       <c r="J67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>186</v>
       </c>
@@ -5721,8 +5935,11 @@
       <c r="J68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>190</v>
       </c>
@@ -5741,8 +5958,11 @@
       <c r="J69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>192</v>
       </c>
@@ -5761,8 +5981,11 @@
       <c r="J70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>192</v>
       </c>
@@ -5781,8 +6004,11 @@
       <c r="H71" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>192</v>
       </c>
@@ -5804,8 +6030,11 @@
       <c r="J72" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>198</v>
       </c>
@@ -5824,8 +6053,11 @@
       <c r="J73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>200</v>
       </c>
@@ -5847,8 +6079,11 @@
       <c r="J74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>203</v>
       </c>
@@ -5867,8 +6102,11 @@
       <c r="J75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>206</v>
       </c>
@@ -5887,8 +6125,11 @@
       <c r="J76" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>209</v>
       </c>
@@ -5907,8 +6148,11 @@
       <c r="J77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>211</v>
       </c>
@@ -5927,8 +6171,11 @@
       <c r="J78" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>213</v>
       </c>
@@ -5947,8 +6194,11 @@
       <c r="J79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>214</v>
       </c>
@@ -5970,8 +6220,11 @@
       <c r="J80" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>216</v>
       </c>
@@ -5996,8 +6249,11 @@
       <c r="J81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>219</v>
       </c>
@@ -6016,8 +6272,11 @@
       <c r="J82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>219</v>
       </c>
@@ -6036,8 +6295,11 @@
       <c r="J83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>222</v>
       </c>
@@ -6056,8 +6318,11 @@
       <c r="J84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>225</v>
       </c>
@@ -6076,8 +6341,11 @@
       <c r="J85" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>228</v>
       </c>
@@ -6096,8 +6364,11 @@
       <c r="J86" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>230</v>
       </c>
@@ -6116,8 +6387,11 @@
       <c r="J87" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>231</v>
       </c>
@@ -6136,8 +6410,11 @@
       <c r="J88" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>233</v>
       </c>
@@ -6156,8 +6433,11 @@
       <c r="J89" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>237</v>
       </c>
@@ -6176,8 +6456,11 @@
       <c r="J90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>240</v>
       </c>
@@ -6196,8 +6479,11 @@
       <c r="J91" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>242</v>
       </c>
@@ -6222,8 +6508,11 @@
       <c r="J92" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>245</v>
       </c>
@@ -6242,8 +6531,11 @@
       <c r="J93" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>247</v>
       </c>
@@ -6262,8 +6554,11 @@
       <c r="J94" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>247</v>
       </c>
@@ -6285,8 +6580,11 @@
       <c r="J95" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>250</v>
       </c>
@@ -6305,8 +6603,11 @@
       <c r="J96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>252</v>
       </c>
@@ -6325,8 +6626,11 @@
       <c r="J97" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>254</v>
       </c>
@@ -6345,8 +6649,11 @@
       <c r="J98" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>257</v>
       </c>
@@ -6365,8 +6672,11 @@
       <c r="J99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>259</v>
       </c>
@@ -6385,8 +6695,11 @@
       <c r="J100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>262</v>
       </c>
@@ -6405,8 +6718,11 @@
       <c r="J101" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>263</v>
       </c>
@@ -6425,8 +6741,11 @@
       <c r="J102" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>266</v>
       </c>
@@ -6445,8 +6764,11 @@
       <c r="J103" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>268</v>
       </c>
@@ -6465,8 +6787,11 @@
       <c r="J104" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>270</v>
       </c>
@@ -6485,8 +6810,11 @@
       <c r="J105" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>272</v>
       </c>
@@ -6505,8 +6833,11 @@
       <c r="J106" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>274</v>
       </c>
@@ -6525,8 +6856,11 @@
       <c r="J107" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>277</v>
       </c>
@@ -6548,8 +6882,11 @@
       <c r="J108" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>279</v>
       </c>
@@ -6571,8 +6908,11 @@
       <c r="J109" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>279</v>
       </c>
@@ -6591,8 +6931,11 @@
       <c r="J110" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>284</v>
       </c>
@@ -6611,8 +6954,11 @@
       <c r="J111" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>286</v>
       </c>
@@ -6631,8 +6977,11 @@
       <c r="J112" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>288</v>
       </c>
@@ -6651,8 +7000,11 @@
       <c r="J113" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>291</v>
       </c>
@@ -6671,8 +7023,11 @@
       <c r="J114" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>293</v>
       </c>
@@ -6691,8 +7046,11 @@
       <c r="J115" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>295</v>
       </c>
@@ -6717,8 +7075,11 @@
       <c r="J116" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>297</v>
       </c>
@@ -6737,8 +7098,11 @@
       <c r="J117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>300</v>
       </c>
@@ -6760,8 +7124,11 @@
       <c r="J118" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>303</v>
       </c>
@@ -6780,8 +7147,11 @@
       <c r="J119" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>305</v>
       </c>
@@ -6800,8 +7170,11 @@
       <c r="J120" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>307</v>
       </c>
@@ -6820,8 +7193,11 @@
       <c r="J121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>309</v>
       </c>
@@ -6840,8 +7216,11 @@
       <c r="J122" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>311</v>
       </c>
@@ -6860,8 +7239,11 @@
       <c r="J123" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>313</v>
       </c>
@@ -6880,8 +7262,11 @@
       <c r="J124" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>314</v>
       </c>
@@ -6906,8 +7291,11 @@
       <c r="J125" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>316</v>
       </c>
@@ -6926,8 +7314,11 @@
       <c r="J126" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>318</v>
       </c>
@@ -6946,8 +7337,11 @@
       <c r="J127" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>320</v>
       </c>
@@ -6966,8 +7360,11 @@
       <c r="J128" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>322</v>
       </c>
@@ -6986,8 +7383,11 @@
       <c r="J129" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>325</v>
       </c>
@@ -7012,8 +7412,11 @@
       <c r="J130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>329</v>
       </c>
@@ -7032,8 +7435,11 @@
       <c r="J131" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>331</v>
       </c>
@@ -7055,8 +7461,11 @@
       <c r="J132" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>333</v>
       </c>
@@ -7075,8 +7484,11 @@
       <c r="J133" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>335</v>
       </c>
@@ -7095,8 +7507,11 @@
       <c r="J134" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>338</v>
       </c>
@@ -7118,8 +7533,11 @@
       <c r="J135" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>338</v>
       </c>
@@ -7138,8 +7556,11 @@
       <c r="J136" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>342</v>
       </c>
@@ -7158,8 +7579,11 @@
       <c r="J137" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>344</v>
       </c>
@@ -7178,8 +7602,11 @@
       <c r="J138" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>345</v>
       </c>
@@ -7198,8 +7625,11 @@
       <c r="J139" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>348</v>
       </c>
@@ -7224,8 +7654,11 @@
       <c r="J140" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>351</v>
       </c>
@@ -7244,8 +7677,11 @@
       <c r="J141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>353</v>
       </c>
@@ -7267,8 +7703,11 @@
       <c r="J142" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>355</v>
       </c>
@@ -7287,8 +7726,11 @@
       <c r="J143" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>358</v>
       </c>
@@ -7307,8 +7749,11 @@
       <c r="J144" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>359</v>
       </c>
@@ -7327,8 +7772,11 @@
       <c r="J145" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>361</v>
       </c>
@@ -7347,8 +7795,11 @@
       <c r="J146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>364</v>
       </c>
@@ -7367,8 +7818,11 @@
       <c r="J147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>366</v>
       </c>
@@ -7387,8 +7841,11 @@
       <c r="J148" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>368</v>
       </c>
@@ -7407,8 +7864,11 @@
       <c r="J149" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>370</v>
       </c>
@@ -7427,8 +7887,11 @@
       <c r="J150" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>371</v>
       </c>
@@ -7447,8 +7910,11 @@
       <c r="J151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>373</v>
       </c>
@@ -7473,8 +7939,17 @@
       <c r="J152" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>376</v>
       </c>
@@ -7493,8 +7968,11 @@
       <c r="J153" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>378</v>
       </c>
@@ -7516,8 +7994,11 @@
       <c r="J154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>380</v>
       </c>
@@ -7539,8 +8020,11 @@
       <c r="J155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>383</v>
       </c>
@@ -7559,8 +8043,11 @@
       <c r="J156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>386</v>
       </c>
@@ -7579,8 +8066,11 @@
       <c r="J157" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>386</v>
       </c>
@@ -7599,8 +8089,11 @@
       <c r="J158" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>386</v>
       </c>
@@ -7619,8 +8112,11 @@
       <c r="J159" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>391</v>
       </c>
@@ -7639,8 +8135,11 @@
       <c r="J160" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>393</v>
       </c>
@@ -7659,8 +8158,11 @@
       <c r="J161" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>395</v>
       </c>
@@ -7679,8 +8181,11 @@
       <c r="J162" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>397</v>
       </c>
@@ -7702,8 +8207,11 @@
       <c r="J163" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>399</v>
       </c>
@@ -7722,8 +8230,11 @@
       <c r="J164" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>401</v>
       </c>
@@ -7742,8 +8253,11 @@
       <c r="J165" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>404</v>
       </c>
@@ -7762,8 +8276,11 @@
       <c r="J166" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>407</v>
       </c>
@@ -7782,8 +8299,11 @@
       <c r="J167" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>409</v>
       </c>
@@ -7802,8 +8322,11 @@
       <c r="J168" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>411</v>
       </c>
@@ -7822,8 +8345,11 @@
       <c r="J169" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>414</v>
       </c>
@@ -7842,8 +8368,11 @@
       <c r="J170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>417</v>
       </c>
@@ -7862,8 +8391,11 @@
       <c r="J171" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>418</v>
       </c>
@@ -7882,8 +8414,11 @@
       <c r="J172" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>420</v>
       </c>
@@ -7902,8 +8437,11 @@
       <c r="J173" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>422</v>
       </c>
@@ -7922,8 +8460,11 @@
       <c r="J174" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>424</v>
       </c>
@@ -7942,8 +8483,11 @@
       <c r="J175" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>425</v>
       </c>
@@ -7965,8 +8509,11 @@
       <c r="J176" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>427</v>
       </c>
@@ -7985,8 +8532,11 @@
       <c r="J177" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>427</v>
       </c>
@@ -8005,8 +8555,11 @@
       <c r="J178" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>430</v>
       </c>
@@ -8025,8 +8578,11 @@
       <c r="J179" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>431</v>
       </c>
@@ -8045,8 +8601,11 @@
       <c r="J180" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>433</v>
       </c>
@@ -8065,8 +8624,11 @@
       <c r="J181" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>435</v>
       </c>
@@ -8085,8 +8647,11 @@
       <c r="J182" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>437</v>
       </c>
@@ -8111,8 +8676,11 @@
       <c r="J183" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>439</v>
       </c>
@@ -8131,8 +8699,11 @@
       <c r="J184" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>442</v>
       </c>
@@ -8154,8 +8725,11 @@
       <c r="J185" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>444</v>
       </c>
@@ -8174,8 +8748,11 @@
       <c r="J186" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>446</v>
       </c>
@@ -8194,8 +8771,11 @@
       <c r="J187" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>446</v>
       </c>
@@ -8214,8 +8794,11 @@
       <c r="J188" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>449</v>
       </c>
@@ -8234,8 +8817,11 @@
       <c r="J189" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>451</v>
       </c>
@@ -8254,8 +8840,11 @@
       <c r="J190" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>453</v>
       </c>
@@ -8277,8 +8866,11 @@
       <c r="J191" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>455</v>
       </c>
@@ -8300,8 +8892,11 @@
       <c r="J192" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>457</v>
       </c>
@@ -8326,8 +8921,11 @@
       <c r="J193" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>459</v>
       </c>
@@ -8346,8 +8944,11 @@
       <c r="J194" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>461</v>
       </c>
@@ -8366,8 +8967,11 @@
       <c r="J195" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>463</v>
       </c>
@@ -8386,8 +8990,11 @@
       <c r="J196" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>465</v>
       </c>
@@ -8406,8 +9013,11 @@
       <c r="J197" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>466</v>
       </c>
@@ -8426,8 +9036,11 @@
       <c r="J198" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>468</v>
       </c>
@@ -8449,8 +9062,11 @@
       <c r="J199" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>470</v>
       </c>
@@ -8469,8 +9085,11 @@
       <c r="J200" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>473</v>
       </c>
@@ -8489,8 +9108,11 @@
       <c r="J201" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>475</v>
       </c>
@@ -8509,8 +9131,11 @@
       <c r="J202" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>475</v>
       </c>
@@ -8529,8 +9154,11 @@
       <c r="J203" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>475</v>
       </c>
@@ -8549,8 +9177,11 @@
       <c r="J204" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>480</v>
       </c>
@@ -8569,8 +9200,11 @@
       <c r="J205" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>482</v>
       </c>
@@ -8592,8 +9226,11 @@
       <c r="J206" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>484</v>
       </c>
@@ -8618,8 +9255,11 @@
       <c r="J207" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>486</v>
       </c>
@@ -8638,8 +9278,11 @@
       <c r="J208" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>487</v>
       </c>
@@ -8658,8 +9301,11 @@
       <c r="J209" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>489</v>
       </c>
@@ -8681,8 +9327,11 @@
       <c r="J210" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>491</v>
       </c>
@@ -8701,8 +9350,11 @@
       <c r="J211" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>494</v>
       </c>
@@ -8724,8 +9376,11 @@
       <c r="J212" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>496</v>
       </c>
@@ -8744,8 +9399,11 @@
       <c r="J213" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>498</v>
       </c>
@@ -8764,8 +9422,11 @@
       <c r="J214" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>500</v>
       </c>
@@ -8784,8 +9445,11 @@
       <c r="J215" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>502</v>
       </c>
@@ -8804,8 +9468,11 @@
       <c r="J216" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>504</v>
       </c>
@@ -8827,8 +9494,11 @@
       <c r="J217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>506</v>
       </c>
@@ -8847,8 +9517,11 @@
       <c r="J218" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>508</v>
       </c>
@@ -8867,8 +9540,11 @@
       <c r="J219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>510</v>
       </c>
@@ -8887,8 +9563,11 @@
       <c r="J220" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>510</v>
       </c>
@@ -8907,8 +9586,11 @@
       <c r="J221" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>513</v>
       </c>
@@ -8927,8 +9609,11 @@
       <c r="J222" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>515</v>
       </c>
@@ -8950,8 +9635,11 @@
       <c r="J223" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>517</v>
       </c>
@@ -8970,8 +9658,11 @@
       <c r="J224" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>519</v>
       </c>
@@ -8996,8 +9687,11 @@
       <c r="J225" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>519</v>
       </c>
@@ -9016,8 +9710,11 @@
       <c r="J226" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>519</v>
       </c>
@@ -9036,8 +9733,11 @@
       <c r="J227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>523</v>
       </c>
@@ -9062,8 +9762,11 @@
       <c r="J228" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>525</v>
       </c>
@@ -9082,8 +9785,11 @@
       <c r="J229" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>527</v>
       </c>
@@ -9099,8 +9805,11 @@
       <c r="H230" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>529</v>
       </c>
@@ -9119,8 +9828,11 @@
       <c r="J231" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>531</v>
       </c>
@@ -9139,8 +9851,11 @@
       <c r="J232" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>533</v>
       </c>
@@ -9159,8 +9874,11 @@
       <c r="J233" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>536</v>
       </c>
@@ -9179,8 +9897,11 @@
       <c r="J234" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>538</v>
       </c>
@@ -9199,8 +9920,11 @@
       <c r="J235" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>541</v>
       </c>
@@ -9219,8 +9943,11 @@
       <c r="J236" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>543</v>
       </c>
@@ -9239,8 +9966,11 @@
       <c r="J237" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>545</v>
       </c>
@@ -9259,8 +9989,11 @@
       <c r="J238" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>545</v>
       </c>
@@ -9285,8 +10018,11 @@
       <c r="J239" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>548</v>
       </c>
@@ -9305,8 +10041,11 @@
       <c r="J240" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>551</v>
       </c>
@@ -9325,8 +10064,11 @@
       <c r="J241" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>553</v>
       </c>
@@ -9345,8 +10087,11 @@
       <c r="J242" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>555</v>
       </c>
@@ -9365,8 +10110,11 @@
       <c r="J243" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>557</v>
       </c>
@@ -9385,8 +10133,11 @@
       <c r="J244" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>559</v>
       </c>
@@ -9405,8 +10156,11 @@
       <c r="J245" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>561</v>
       </c>
@@ -9428,8 +10182,11 @@
       <c r="J246" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>563</v>
       </c>
@@ -9448,8 +10205,11 @@
       <c r="J247" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>565</v>
       </c>
@@ -9468,8 +10228,11 @@
       <c r="J248" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>568</v>
       </c>
@@ -9488,8 +10251,11 @@
       <c r="J249" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>570</v>
       </c>
@@ -9508,8 +10274,11 @@
       <c r="J250" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>572</v>
       </c>
@@ -9528,8 +10297,11 @@
       <c r="J251" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>574</v>
       </c>
@@ -9551,8 +10323,11 @@
       <c r="J252" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>576</v>
       </c>
@@ -9571,8 +10346,11 @@
       <c r="J253" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>578</v>
       </c>
@@ -9591,8 +10369,11 @@
       <c r="J254" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>579</v>
       </c>
@@ -9611,8 +10392,11 @@
       <c r="J255" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>581</v>
       </c>
@@ -9631,8 +10415,11 @@
       <c r="J256" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>583</v>
       </c>
@@ -9657,8 +10444,11 @@
       <c r="J257" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>585</v>
       </c>
@@ -9677,8 +10467,11 @@
       <c r="J258" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>587</v>
       </c>
@@ -9697,8 +10490,11 @@
       <c r="J259" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>589</v>
       </c>
@@ -9717,8 +10513,11 @@
       <c r="J260" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>591</v>
       </c>
@@ -9734,8 +10533,11 @@
       <c r="H261" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>593</v>
       </c>
@@ -9754,8 +10556,11 @@
       <c r="J262" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>595</v>
       </c>
@@ -9774,8 +10579,11 @@
       <c r="J263" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>597</v>
       </c>
@@ -9794,8 +10602,11 @@
       <c r="J264" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>599</v>
       </c>
@@ -9814,8 +10625,11 @@
       <c r="J265" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>601</v>
       </c>
@@ -9834,8 +10648,11 @@
       <c r="J266" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>603</v>
       </c>
@@ -9854,8 +10671,11 @@
       <c r="J267" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>605</v>
       </c>
@@ -9874,8 +10694,11 @@
       <c r="J268" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>607</v>
       </c>
@@ -9894,8 +10717,11 @@
       <c r="J269" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>609</v>
       </c>
@@ -9920,8 +10746,11 @@
       <c r="J270" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>611</v>
       </c>
@@ -9940,8 +10769,11 @@
       <c r="J271" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>611</v>
       </c>
@@ -9960,8 +10792,11 @@
       <c r="J272" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>614</v>
       </c>
@@ -9980,8 +10815,11 @@
       <c r="J273" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>615</v>
       </c>
@@ -10000,8 +10838,11 @@
       <c r="J274" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>615</v>
       </c>
@@ -10020,8 +10861,11 @@
       <c r="J275" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>618</v>
       </c>
@@ -10040,8 +10884,11 @@
       <c r="J276" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>620</v>
       </c>
@@ -10060,8 +10907,11 @@
       <c r="J277" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>622</v>
       </c>
@@ -10080,8 +10930,11 @@
       <c r="J278" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>625</v>
       </c>
@@ -10100,8 +10953,11 @@
       <c r="J279" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>628</v>
       </c>
@@ -10120,8 +10976,11 @@
       <c r="J280" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>631</v>
       </c>
@@ -10140,8 +10999,11 @@
       <c r="J281" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>633</v>
       </c>
@@ -10160,8 +11022,11 @@
       <c r="J282" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>635</v>
       </c>
@@ -10180,8 +11045,11 @@
       <c r="J283" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>636</v>
       </c>
@@ -10200,8 +11068,11 @@
       <c r="J284" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>638</v>
       </c>
@@ -10220,8 +11091,11 @@
       <c r="J285" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>640</v>
       </c>
@@ -10240,8 +11114,11 @@
       <c r="J286" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>642</v>
       </c>
@@ -10260,8 +11137,11 @@
       <c r="J287" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>644</v>
       </c>
@@ -10280,8 +11160,11 @@
       <c r="J288" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>646</v>
       </c>
@@ -10300,8 +11183,11 @@
       <c r="J289" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>648</v>
       </c>
@@ -10320,8 +11206,11 @@
       <c r="J290" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>650</v>
       </c>
@@ -10340,8 +11229,11 @@
       <c r="J291" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>652</v>
       </c>
@@ -10360,8 +11252,11 @@
       <c r="J292" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>654</v>
       </c>
@@ -10380,8 +11275,11 @@
       <c r="J293" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>655</v>
       </c>
@@ -10400,8 +11298,11 @@
       <c r="J294" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>657</v>
       </c>
@@ -10420,8 +11321,11 @@
       <c r="J295" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>659</v>
       </c>
@@ -10440,8 +11344,11 @@
       <c r="J296" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>660</v>
       </c>
@@ -10460,8 +11367,11 @@
       <c r="J297" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>663</v>
       </c>
@@ -10480,8 +11390,11 @@
       <c r="J298" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>665</v>
       </c>
@@ -10500,8 +11413,11 @@
       <c r="J299" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>667</v>
       </c>
@@ -10520,8 +11436,11 @@
       <c r="J300" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>669</v>
       </c>
@@ -10540,8 +11459,11 @@
       <c r="J301" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>669</v>
       </c>
@@ -10566,8 +11488,11 @@
       <c r="J302" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>672</v>
       </c>
@@ -10586,8 +11511,11 @@
       <c r="J303" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>674</v>
       </c>
@@ -10606,8 +11534,11 @@
       <c r="J304" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>676</v>
       </c>
@@ -10626,8 +11557,11 @@
       <c r="J305" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>678</v>
       </c>
@@ -10646,8 +11580,11 @@
       <c r="J306" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>680</v>
       </c>
@@ -10669,8 +11606,11 @@
       <c r="J307" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>680</v>
       </c>
@@ -10689,8 +11629,11 @@
       <c r="J308" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>683</v>
       </c>
@@ -10709,8 +11652,11 @@
       <c r="J309" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>685</v>
       </c>
@@ -10729,8 +11675,11 @@
       <c r="J310" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>687</v>
       </c>
@@ -10749,8 +11698,11 @@
       <c r="J311" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>688</v>
       </c>
@@ -10769,8 +11721,11 @@
       <c r="J312" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>690</v>
       </c>
@@ -10789,8 +11744,11 @@
       <c r="J313" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>692</v>
       </c>
@@ -10809,8 +11767,11 @@
       <c r="J314" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>693</v>
       </c>
@@ -10829,8 +11790,11 @@
       <c r="J315" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>695</v>
       </c>
@@ -10852,8 +11816,11 @@
       <c r="J316" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>697</v>
       </c>
@@ -10872,8 +11839,11 @@
       <c r="J317" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>699</v>
       </c>
@@ -10892,8 +11862,11 @@
       <c r="J318" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>702</v>
       </c>
@@ -10912,8 +11885,11 @@
       <c r="J319" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>704</v>
       </c>
@@ -10935,8 +11911,11 @@
       <c r="J320" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>706</v>
       </c>
@@ -10955,8 +11934,11 @@
       <c r="J321" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>708</v>
       </c>
@@ -10975,8 +11957,11 @@
       <c r="J322" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>710</v>
       </c>
@@ -10995,8 +11980,11 @@
       <c r="J323" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>712</v>
       </c>
@@ -11015,8 +12003,11 @@
       <c r="J324" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>715</v>
       </c>
@@ -11035,8 +12026,11 @@
       <c r="J325" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>717</v>
       </c>
@@ -11058,8 +12052,11 @@
       <c r="J326" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>719</v>
       </c>
@@ -11078,8 +12075,11 @@
       <c r="J327" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>721</v>
       </c>
@@ -11098,8 +12098,11 @@
       <c r="J328" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>723</v>
       </c>
@@ -11118,8 +12121,11 @@
       <c r="J329" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>725</v>
       </c>
@@ -11138,8 +12144,11 @@
       <c r="J330" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>727</v>
       </c>
@@ -11158,8 +12167,11 @@
       <c r="J331" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>729</v>
       </c>
@@ -11178,8 +12190,11 @@
       <c r="J332" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>732</v>
       </c>
@@ -11198,8 +12213,11 @@
       <c r="J333" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>732</v>
       </c>
@@ -11218,8 +12236,11 @@
       <c r="J334" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>735</v>
       </c>
@@ -11238,8 +12259,11 @@
       <c r="J335" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>737</v>
       </c>
@@ -11258,8 +12282,11 @@
       <c r="J336" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>739</v>
       </c>
@@ -11278,8 +12305,11 @@
       <c r="J337" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>741</v>
       </c>
@@ -11298,8 +12328,11 @@
       <c r="J338" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>743</v>
       </c>
@@ -11318,8 +12351,11 @@
       <c r="J339" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>745</v>
       </c>
@@ -11338,8 +12374,11 @@
       <c r="J340" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>747</v>
       </c>
@@ -11358,8 +12397,11 @@
       <c r="J341" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>749</v>
       </c>
@@ -11378,8 +12420,11 @@
       <c r="J342" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>751</v>
       </c>
@@ -11398,8 +12443,11 @@
       <c r="J343" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>753</v>
       </c>
@@ -11418,8 +12466,11 @@
       <c r="J344" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>755</v>
       </c>
@@ -11438,8 +12489,11 @@
       <c r="J345" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>757</v>
       </c>
@@ -11458,8 +12512,11 @@
       <c r="J346" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>759</v>
       </c>
@@ -11478,8 +12535,11 @@
       <c r="J347" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>761</v>
       </c>
@@ -11498,8 +12558,11 @@
       <c r="J348" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>764</v>
       </c>
@@ -11518,8 +12581,11 @@
       <c r="J349" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>766</v>
       </c>
@@ -11538,8 +12604,11 @@
       <c r="J350" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>767</v>
       </c>
@@ -11558,8 +12627,11 @@
       <c r="J351" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>769</v>
       </c>
@@ -11578,8 +12650,11 @@
       <c r="J352" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>771</v>
       </c>
@@ -11598,8 +12673,11 @@
       <c r="J353" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>773</v>
       </c>
@@ -11621,8 +12699,11 @@
       <c r="J354" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>775</v>
       </c>
@@ -11641,8 +12722,11 @@
       <c r="J355" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>777</v>
       </c>
@@ -11661,8 +12745,11 @@
       <c r="J356" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>775</v>
       </c>
@@ -11681,8 +12768,11 @@
       <c r="J357" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>780</v>
       </c>
@@ -11701,8 +12791,11 @@
       <c r="J358" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>781</v>
       </c>
@@ -11721,8 +12814,11 @@
       <c r="J359" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>783</v>
       </c>
@@ -11747,8 +12843,11 @@
       <c r="J360" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>785</v>
       </c>
@@ -11767,8 +12866,11 @@
       <c r="J361" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>787</v>
       </c>
@@ -11790,8 +12892,11 @@
       <c r="J362" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>789</v>
       </c>
@@ -11810,8 +12915,11 @@
       <c r="J363" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>791</v>
       </c>
@@ -11830,8 +12938,11 @@
       <c r="J364" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>792</v>
       </c>
@@ -11850,8 +12961,11 @@
       <c r="J365" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>794</v>
       </c>
@@ -11870,8 +12984,11 @@
       <c r="J366" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>796</v>
       </c>
@@ -11890,8 +13007,11 @@
       <c r="J367" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>798</v>
       </c>
@@ -11910,8 +13030,11 @@
       <c r="J368" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>800</v>
       </c>
@@ -11930,8 +13053,11 @@
       <c r="J369" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>802</v>
       </c>
@@ -11950,8 +13076,11 @@
       <c r="J370" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>802</v>
       </c>
@@ -11970,8 +13099,11 @@
       <c r="J371" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>805</v>
       </c>
@@ -11990,8 +13122,11 @@
       <c r="J372" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>808</v>
       </c>
@@ -12010,8 +13145,11 @@
       <c r="J373" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>811</v>
       </c>
@@ -12036,8 +13174,11 @@
       <c r="J374" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>813</v>
       </c>
@@ -12062,8 +13203,11 @@
       <c r="J375" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>815</v>
       </c>
@@ -12082,8 +13226,11 @@
       <c r="J376" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>817</v>
       </c>
@@ -12102,8 +13249,11 @@
       <c r="J377" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>819</v>
       </c>
@@ -12122,8 +13272,11 @@
       <c r="J378" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>821</v>
       </c>
@@ -12142,8 +13295,11 @@
       <c r="J379" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>823</v>
       </c>
@@ -12162,8 +13318,11 @@
       <c r="J380" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>823</v>
       </c>
@@ -12182,8 +13341,11 @@
       <c r="J381" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>826</v>
       </c>
@@ -12202,8 +13364,11 @@
       <c r="J382" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>826</v>
       </c>
@@ -12222,8 +13387,11 @@
       <c r="J383" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>829</v>
       </c>
@@ -12242,8 +13410,11 @@
       <c r="J384" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="385" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>831</v>
       </c>
@@ -12262,8 +13433,11 @@
       <c r="J385" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="386" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>832</v>
       </c>
@@ -12282,8 +13456,11 @@
       <c r="J386" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="387" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>834</v>
       </c>
@@ -12302,8 +13479,11 @@
       <c r="J387" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="388" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>836</v>
       </c>
@@ -12322,8 +13502,11 @@
       <c r="J388" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="389" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>838</v>
       </c>
@@ -12342,8 +13525,11 @@
       <c r="J389" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="390" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>840</v>
       </c>
@@ -12362,8 +13548,11 @@
       <c r="J390" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="391" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>842</v>
       </c>
@@ -12382,8 +13571,11 @@
       <c r="J391" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>844</v>
       </c>
@@ -12405,8 +13597,11 @@
       <c r="J392" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>844</v>
       </c>
@@ -12428,8 +13623,11 @@
       <c r="J393" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="394" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>847</v>
       </c>
@@ -12445,8 +13643,11 @@
       <c r="H394" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="395" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>847</v>
       </c>
@@ -12465,8 +13666,11 @@
       <c r="J395" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="396" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>850</v>
       </c>
@@ -12485,8 +13689,11 @@
       <c r="J396" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="397" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>852</v>
       </c>
@@ -12505,8 +13712,11 @@
       <c r="J397" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>854</v>
       </c>
@@ -12525,8 +13735,11 @@
       <c r="J398" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="399" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>856</v>
       </c>
@@ -12545,8 +13758,11 @@
       <c r="J399" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="400" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>858</v>
       </c>
@@ -12565,8 +13781,11 @@
       <c r="J400" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>861</v>
       </c>
@@ -12591,8 +13810,11 @@
       <c r="J401" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>864</v>
       </c>
@@ -12611,8 +13833,11 @@
       <c r="J402" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>866</v>
       </c>
@@ -12631,8 +13856,11 @@
       <c r="J403" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>868</v>
       </c>
@@ -12651,8 +13879,11 @@
       <c r="J404" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>870</v>
       </c>
@@ -12677,8 +13908,11 @@
       <c r="J405" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>872</v>
       </c>
@@ -12697,8 +13931,11 @@
       <c r="J406" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>874</v>
       </c>
@@ -12717,8 +13954,11 @@
       <c r="J407" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>876</v>
       </c>
@@ -12737,8 +13977,11 @@
       <c r="J408" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="409" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>878</v>
       </c>
@@ -12760,8 +14003,11 @@
       <c r="J409" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>880</v>
       </c>
@@ -12780,8 +14026,11 @@
       <c r="J410" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="411" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>881</v>
       </c>
@@ -12800,8 +14049,11 @@
       <c r="J411" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>883</v>
       </c>
@@ -12820,8 +14072,11 @@
       <c r="J412" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>883</v>
       </c>
@@ -12843,8 +14098,11 @@
       <c r="J413" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>886</v>
       </c>
@@ -12863,8 +14121,11 @@
       <c r="J414" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="415" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>888</v>
       </c>
@@ -12883,8 +14144,11 @@
       <c r="J415" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="416" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>890</v>
       </c>
@@ -12903,8 +14167,11 @@
       <c r="J416" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>892</v>
       </c>
@@ -12923,8 +14190,11 @@
       <c r="J417" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>895</v>
       </c>
@@ -12943,8 +14213,11 @@
       <c r="J418" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>897</v>
       </c>
@@ -12963,8 +14236,11 @@
       <c r="J419" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>899</v>
       </c>
@@ -12983,8 +14259,11 @@
       <c r="J420" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>901</v>
       </c>
@@ -13003,8 +14282,11 @@
       <c r="J421" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>904</v>
       </c>
@@ -13023,8 +14305,11 @@
       <c r="J422" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>906</v>
       </c>
@@ -13043,8 +14328,11 @@
       <c r="J423" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>908</v>
       </c>
@@ -13063,8 +14351,11 @@
       <c r="J424" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>910</v>
       </c>
@@ -13083,8 +14374,11 @@
       <c r="J425" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="426" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>912</v>
       </c>
@@ -13103,8 +14397,11 @@
       <c r="J426" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>914</v>
       </c>
@@ -13123,8 +14420,11 @@
       <c r="J427" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>916</v>
       </c>
@@ -13143,8 +14443,11 @@
       <c r="J428" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>918</v>
       </c>
@@ -13163,8 +14466,11 @@
       <c r="J429" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>919</v>
       </c>
@@ -13183,8 +14489,11 @@
       <c r="J430" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>921</v>
       </c>
@@ -13203,8 +14512,11 @@
       <c r="J431" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>923</v>
       </c>
@@ -13223,8 +14535,11 @@
       <c r="J432" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>925</v>
       </c>
@@ -13243,8 +14558,11 @@
       <c r="J433" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>925</v>
       </c>
@@ -13263,8 +14581,11 @@
       <c r="J434" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>928</v>
       </c>
@@ -13286,8 +14607,11 @@
       <c r="J435" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>930</v>
       </c>
@@ -13306,8 +14630,11 @@
       <c r="J436" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>932</v>
       </c>
@@ -13326,8 +14653,11 @@
       <c r="J437" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>933</v>
       </c>
@@ -13346,8 +14676,11 @@
       <c r="J438" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>935</v>
       </c>
@@ -13366,8 +14699,11 @@
       <c r="J439" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>937</v>
       </c>
@@ -13386,8 +14722,11 @@
       <c r="J440" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>939</v>
       </c>
@@ -13406,8 +14745,11 @@
       <c r="J441" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>941</v>
       </c>
@@ -13426,8 +14768,11 @@
       <c r="J442" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>943</v>
       </c>
@@ -13446,8 +14791,11 @@
       <c r="J443" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>945</v>
       </c>
@@ -13472,8 +14820,11 @@
       <c r="J444" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>945</v>
       </c>
@@ -13492,8 +14843,11 @@
       <c r="J445" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>947</v>
       </c>
@@ -13512,8 +14866,11 @@
       <c r="J446" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>949</v>
       </c>
@@ -13535,8 +14892,11 @@
       <c r="J447" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>952</v>
       </c>
@@ -13555,8 +14915,11 @@
       <c r="J448" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="449" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>954</v>
       </c>
@@ -13578,8 +14941,11 @@
       <c r="J449" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="450" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>958</v>
       </c>
@@ -13598,8 +14964,11 @@
       <c r="J450" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="451" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>961</v>
       </c>
@@ -13618,8 +14987,11 @@
       <c r="J451" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="452" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>964</v>
       </c>
@@ -13638,8 +15010,11 @@
       <c r="J452" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="453" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>968</v>
       </c>
@@ -13658,8 +15033,11 @@
       <c r="J453" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="454" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>971</v>
       </c>
@@ -13678,8 +15056,11 @@
       <c r="J454" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="455" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>974</v>
       </c>
@@ -13698,8 +15079,11 @@
       <c r="J455" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="456" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
         <v>977</v>
       </c>
@@ -13718,8 +15102,11 @@
       <c r="J456" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="457" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>980</v>
       </c>
@@ -13738,8 +15125,11 @@
       <c r="J457" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="458" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>983</v>
       </c>
@@ -13758,8 +15148,11 @@
       <c r="J458" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="459" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>986</v>
       </c>
@@ -13778,8 +15171,11 @@
       <c r="J459" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="460" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>989</v>
       </c>
@@ -13801,8 +15197,11 @@
       <c r="J460" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="461" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>991</v>
       </c>
@@ -13821,8 +15220,11 @@
       <c r="J461" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="462" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>994</v>
       </c>
@@ -13841,8 +15243,11 @@
       <c r="J462" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="463" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>997</v>
       </c>
@@ -13861,8 +15266,11 @@
       <c r="J463" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="464" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>1000</v>
       </c>
@@ -13884,8 +15292,11 @@
       <c r="J464" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="465" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>291</v>
       </c>
@@ -13904,8 +15315,11 @@
       <c r="J465" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="466" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>910</v>
       </c>
@@ -13924,8 +15338,11 @@
       <c r="J466" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="467" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
         <v>1006</v>
       </c>
@@ -13944,8 +15361,11 @@
       <c r="J467" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="468" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>1009</v>
       </c>
@@ -13964,8 +15384,11 @@
       <c r="J468" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="469" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>1011</v>
       </c>
@@ -13984,8 +15407,11 @@
       <c r="J469" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="470" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>1014</v>
       </c>
@@ -14004,8 +15430,11 @@
       <c r="J470" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="471" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
         <v>1017</v>
       </c>
@@ -14024,8 +15453,11 @@
       <c r="J471" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="472" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>1020</v>
       </c>
@@ -14044,8 +15476,11 @@
       <c r="J472" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="473" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>1022</v>
       </c>
@@ -14067,8 +15502,11 @@
       <c r="J473" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="474" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
         <v>1025</v>
       </c>
@@ -14090,8 +15528,11 @@
       <c r="J474" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="475" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
         <v>1028</v>
       </c>
@@ -14110,8 +15551,11 @@
       <c r="J475" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="476" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>761</v>
       </c>
@@ -14130,8 +15574,11 @@
       <c r="J476" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="477" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>1032</v>
       </c>
@@ -14153,8 +15600,11 @@
       <c r="J477" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="478" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>1035</v>
       </c>
@@ -14173,8 +15623,11 @@
       <c r="J478" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="479" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>1038</v>
       </c>
@@ -14196,8 +15649,11 @@
       <c r="J479" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="480" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
         <v>1040</v>
       </c>
@@ -14216,8 +15672,11 @@
       <c r="J480" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="481" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>1043</v>
       </c>
@@ -14236,8 +15695,11 @@
       <c r="J481" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="482" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
         <v>672</v>
       </c>
@@ -14256,8 +15718,11 @@
       <c r="J482" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="483" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>1047</v>
       </c>
@@ -14279,8 +15744,11 @@
       <c r="J483" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="484" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>1050</v>
       </c>
@@ -14299,8 +15767,11 @@
       <c r="J484" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="485" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
         <v>1052</v>
       </c>
@@ -14319,8 +15790,11 @@
       <c r="J485" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="486" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
         <v>1055</v>
       </c>
@@ -14339,8 +15813,11 @@
       <c r="J486" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="487" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
         <v>1057</v>
       </c>
@@ -14359,8 +15836,11 @@
       <c r="J487" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="488" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
         <v>785</v>
       </c>
@@ -14379,8 +15859,11 @@
       <c r="J488" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="489" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
         <v>1062</v>
       </c>
@@ -14399,8 +15882,11 @@
       <c r="J489" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="490" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
         <v>1022</v>
       </c>
@@ -14419,8 +15905,11 @@
       <c r="J490" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="491" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
         <v>1065</v>
       </c>
@@ -14439,8 +15928,11 @@
       <c r="J491" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="492" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
         <v>1067</v>
       </c>
@@ -14462,8 +15954,11 @@
       <c r="J492" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="493" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
         <v>1069</v>
       </c>
@@ -14482,8 +15977,11 @@
       <c r="J493" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="494" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
         <v>1071</v>
       </c>
@@ -14502,8 +16000,11 @@
       <c r="J494" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="495" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
         <v>1074</v>
       </c>
@@ -14522,8 +16023,11 @@
       <c r="J495" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="496" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
         <v>1076</v>
       </c>
@@ -14542,8 +16046,11 @@
       <c r="J496" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="497" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
         <v>1079</v>
       </c>
@@ -14562,8 +16069,11 @@
       <c r="J497" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="498" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>1081</v>
       </c>
@@ -14582,8 +16092,11 @@
       <c r="J498" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="499" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>1084</v>
       </c>
@@ -14602,8 +16115,11 @@
       <c r="J499" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="500" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
         <v>1087</v>
       </c>
@@ -14622,8 +16138,11 @@
       <c r="J500" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="501" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
         <v>910</v>
       </c>
@@ -14642,8 +16161,11 @@
       <c r="J501" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="502" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
         <v>1090</v>
       </c>
@@ -14662,8 +16184,11 @@
       <c r="J502" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="503" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
         <v>1093</v>
       </c>
@@ -14685,8 +16210,11 @@
       <c r="J503" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="504" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
         <v>1040</v>
       </c>
@@ -14705,8 +16233,11 @@
       <c r="J504" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="505" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
         <v>1097</v>
       </c>
@@ -14728,8 +16259,11 @@
       <c r="J505" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="506" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
         <v>1099</v>
       </c>
@@ -14748,8 +16282,11 @@
       <c r="J506" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="507" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
         <v>272</v>
       </c>
@@ -14768,8 +16305,11 @@
       <c r="J507" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="508" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
         <v>1102</v>
       </c>
@@ -14788,8 +16328,11 @@
       <c r="J508" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="509" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
         <v>1104</v>
       </c>
@@ -14808,8 +16351,11 @@
       <c r="J509" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="510" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
         <v>1106</v>
       </c>
@@ -14828,8 +16374,11 @@
       <c r="J510" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="511" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
         <v>1108</v>
       </c>
@@ -14848,8 +16397,11 @@
       <c r="J511" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="512" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
         <v>1110</v>
       </c>
@@ -14868,8 +16420,11 @@
       <c r="J512" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="513" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
         <v>1113</v>
       </c>
@@ -14888,8 +16443,11 @@
       <c r="J513" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="514" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
         <v>1116</v>
       </c>
@@ -14911,8 +16469,11 @@
       <c r="J514" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
         <v>958</v>
       </c>
@@ -14931,8 +16492,11 @@
       <c r="J515" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="516" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
         <v>1120</v>
       </c>
@@ -14951,8 +16515,11 @@
       <c r="J516" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
         <v>1123</v>
       </c>
@@ -14971,8 +16538,11 @@
       <c r="J517" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="518" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
         <v>1125</v>
       </c>
@@ -14991,8 +16561,11 @@
       <c r="J518" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
         <v>1127</v>
       </c>
@@ -15011,8 +16584,11 @@
       <c r="J519" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
         <v>1130</v>
       </c>
@@ -15031,8 +16607,11 @@
       <c r="J520" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
         <v>665</v>
       </c>
@@ -15051,8 +16630,11 @@
       <c r="J521" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
         <v>1134</v>
       </c>
@@ -15071,8 +16653,11 @@
       <c r="J522" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
         <v>910</v>
       </c>
@@ -15094,8 +16679,11 @@
       <c r="J523" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
         <v>704</v>
       </c>
@@ -15114,8 +16702,11 @@
       <c r="J524" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="525" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
         <v>1140</v>
       </c>
@@ -15134,8 +16725,11 @@
       <c r="J525" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="526" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
         <v>1141</v>
       </c>
@@ -15157,8 +16751,11 @@
       <c r="J526" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
         <v>1143</v>
       </c>
@@ -15177,8 +16774,11 @@
       <c r="J527" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
         <v>1145</v>
       </c>
@@ -15197,8 +16797,11 @@
       <c r="J528" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="529" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
         <v>1147</v>
       </c>
@@ -15220,8 +16823,11 @@
       <c r="J529" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="530" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
         <v>1149</v>
       </c>
@@ -15240,8 +16846,11 @@
       <c r="J530" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="531" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
         <v>1150</v>
       </c>
@@ -15263,8 +16872,11 @@
       <c r="J531" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="532" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
         <v>1153</v>
       </c>
@@ -15283,8 +16895,11 @@
       <c r="J532" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="533" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
         <v>1155</v>
       </c>
@@ -15303,8 +16918,11 @@
       <c r="J533" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="534" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
         <v>1158</v>
       </c>
@@ -15323,8 +16941,11 @@
       <c r="J534" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="535" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
         <v>1160</v>
       </c>
@@ -15343,8 +16964,11 @@
       <c r="J535" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="536" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
         <v>1162</v>
       </c>
@@ -15363,8 +16987,11 @@
       <c r="J536" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="537" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
         <v>1164</v>
       </c>
@@ -15383,8 +17010,11 @@
       <c r="J537" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="538" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B538" t="s">
         <v>1167</v>
       </c>
@@ -15403,8 +17033,11 @@
       <c r="J538" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="539" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
         <v>1169</v>
       </c>
@@ -15426,8 +17059,11 @@
       <c r="J539" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="540" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
         <v>1171</v>
       </c>
@@ -15446,8 +17082,11 @@
       <c r="J540" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="541" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
         <v>1173</v>
       </c>
@@ -15466,8 +17105,11 @@
       <c r="J541" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="542" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
         <v>1175</v>
       </c>
@@ -15489,8 +17131,11 @@
       <c r="J542" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="543" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
         <v>1177</v>
       </c>
@@ -15509,8 +17154,11 @@
       <c r="J543" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="544" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
         <v>1179</v>
       </c>
@@ -15529,8 +17177,11 @@
       <c r="J544" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="545" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B545" t="s">
         <v>1181</v>
       </c>
@@ -15552,8 +17203,11 @@
       <c r="J545" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="546" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
         <v>1050</v>
       </c>
@@ -15569,8 +17223,11 @@
       <c r="J546" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="547" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
         <v>1184</v>
       </c>
@@ -15589,8 +17246,11 @@
       <c r="J547" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="548" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
         <v>1186</v>
       </c>
@@ -15609,8 +17269,11 @@
       <c r="J548" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="549" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
         <v>1189</v>
       </c>
@@ -15629,8 +17292,11 @@
       <c r="J549" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="550" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
         <v>1191</v>
       </c>
@@ -15649,8 +17315,11 @@
       <c r="J550" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="551" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
         <v>1193</v>
       </c>
@@ -15669,8 +17338,11 @@
       <c r="J551" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="552" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B552" t="s">
         <v>1195</v>
       </c>
@@ -15689,8 +17361,11 @@
       <c r="J552" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="553" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
         <v>1197</v>
       </c>
@@ -15709,8 +17384,11 @@
       <c r="J553" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="554" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
         <v>1199</v>
       </c>
@@ -15729,8 +17407,11 @@
       <c r="J554" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="555" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
         <v>796</v>
       </c>
@@ -15752,8 +17433,11 @@
       <c r="J555" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="556" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
         <v>1202</v>
       </c>
@@ -15772,8 +17456,11 @@
       <c r="J556" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="557" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B557" t="s">
         <v>1204</v>
       </c>
@@ -15792,8 +17479,11 @@
       <c r="J557" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="558" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
         <v>1206</v>
       </c>
@@ -15812,8 +17502,11 @@
       <c r="J558" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="559" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
         <v>1143</v>
       </c>
@@ -15832,8 +17525,11 @@
       <c r="J559" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="560" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
         <v>1209</v>
       </c>
@@ -15855,8 +17551,11 @@
       <c r="J560" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="561" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
         <v>1212</v>
       </c>
@@ -15875,8 +17574,11 @@
       <c r="J561" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="562" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
         <v>1214</v>
       </c>
@@ -15895,8 +17597,11 @@
       <c r="J562" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="563" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
         <v>1216</v>
       </c>
@@ -15915,8 +17620,11 @@
       <c r="J563" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="564" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B564" t="s">
         <v>785</v>
       </c>
@@ -15935,8 +17643,11 @@
       <c r="J564" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="565" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
         <v>1219</v>
       </c>
@@ -15952,8 +17663,11 @@
       <c r="J565" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="566" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
         <v>1220</v>
       </c>
@@ -15972,8 +17686,11 @@
       <c r="J566" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="567" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B567" t="s">
         <v>1222</v>
       </c>
@@ -15992,8 +17709,11 @@
       <c r="J567" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="568" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B568" t="s">
         <v>1224</v>
       </c>
@@ -16012,8 +17732,11 @@
       <c r="J568" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="569" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
         <v>1226</v>
       </c>
@@ -16032,8 +17755,11 @@
       <c r="J569" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="570" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B570" t="s">
         <v>1181</v>
       </c>
@@ -16052,8 +17778,11 @@
       <c r="J570" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="571" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
         <v>1229</v>
       </c>
@@ -16072,8 +17801,11 @@
       <c r="J571" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="572" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
         <v>1232</v>
       </c>
@@ -16092,8 +17824,11 @@
       <c r="J572" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="573" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B573" t="s">
         <v>1234</v>
       </c>
@@ -16115,8 +17850,11 @@
       <c r="J573" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="574" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B574" t="s">
         <v>561</v>
       </c>
@@ -16132,8 +17870,11 @@
       <c r="J574" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="575" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B575" t="s">
         <v>1237</v>
       </c>
@@ -16152,8 +17893,11 @@
       <c r="J575" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="576" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B576" t="s">
         <v>1239</v>
       </c>
@@ -16175,8 +17919,11 @@
       <c r="J576" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="577" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B577" t="s">
         <v>1241</v>
       </c>
@@ -16195,8 +17942,11 @@
       <c r="J577" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="578" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B578" t="s">
         <v>1014</v>
       </c>
@@ -16215,8 +17965,11 @@
       <c r="J578" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="579" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B579" t="s">
         <v>1245</v>
       </c>
@@ -16235,8 +17988,11 @@
       <c r="J579" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="580" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B580" t="s">
         <v>672</v>
       </c>
@@ -16255,8 +18011,11 @@
       <c r="J580" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="581" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B581" t="s">
         <v>1248</v>
       </c>
@@ -16278,8 +18037,11 @@
       <c r="J581" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="582" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B582" t="s">
         <v>1251</v>
       </c>
@@ -16298,8 +18060,11 @@
       <c r="J582" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="583" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B583" t="s">
         <v>1253</v>
       </c>
@@ -16318,8 +18083,11 @@
       <c r="J583" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="584" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B584" t="s">
         <v>1256</v>
       </c>
@@ -16338,8 +18106,11 @@
       <c r="J584" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="585" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B585" t="s">
         <v>1258</v>
       </c>
@@ -16358,8 +18129,11 @@
       <c r="J585" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="586" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B586" t="s">
         <v>1260</v>
       </c>
@@ -16378,8 +18152,11 @@
       <c r="J586" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="587" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B587" t="s">
         <v>1262</v>
       </c>
@@ -16401,8 +18178,11 @@
       <c r="J587" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="588" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B588" t="s">
         <v>1264</v>
       </c>
@@ -16418,8 +18198,11 @@
       <c r="J588" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="589" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B589" t="s">
         <v>1265</v>
       </c>
@@ -16438,8 +18221,11 @@
       <c r="J589" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="590" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B590" t="s">
         <v>1028</v>
       </c>
@@ -16458,8 +18244,11 @@
       <c r="J590" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="591" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B591" t="s">
         <v>1268</v>
       </c>
@@ -16481,8 +18270,11 @@
       <c r="J591" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="592" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B592" t="s">
         <v>1209</v>
       </c>
@@ -16501,8 +18293,11 @@
       <c r="J592" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="593" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B593" t="s">
         <v>1271</v>
       </c>
@@ -16518,8 +18313,11 @@
       <c r="J593" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="594" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B594" t="s">
         <v>1273</v>
       </c>
@@ -16538,8 +18336,11 @@
       <c r="J594" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="595" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B595" t="s">
         <v>1276</v>
       </c>
@@ -16558,8 +18359,11 @@
       <c r="J595" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="596" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B596" t="s">
         <v>548</v>
       </c>
@@ -16578,8 +18382,11 @@
       <c r="J596" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="597" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B597" t="s">
         <v>1279</v>
       </c>
@@ -16598,8 +18405,11 @@
       <c r="J597" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="598" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B598" t="s">
         <v>1282</v>
       </c>
@@ -16618,8 +18428,11 @@
       <c r="J598" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="599" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B599" t="s">
         <v>1285</v>
       </c>
@@ -16638,8 +18451,11 @@
       <c r="J599" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="600" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B600" t="s">
         <v>1287</v>
       </c>
@@ -16658,8 +18474,11 @@
       <c r="J600" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="601" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B601" t="s">
         <v>1289</v>
       </c>
@@ -16678,8 +18497,11 @@
       <c r="J601" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="602" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B602" t="s">
         <v>1291</v>
       </c>
@@ -16698,8 +18520,11 @@
       <c r="J602" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="603" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B603" t="s">
         <v>1162</v>
       </c>
@@ -16718,8 +18543,11 @@
       <c r="J603" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="604" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B604" t="s">
         <v>1294</v>
       </c>
@@ -16738,8 +18566,11 @@
       <c r="J604" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="605" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B605" t="s">
         <v>1296</v>
       </c>
@@ -16758,8 +18589,11 @@
       <c r="J605" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="606" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B606" t="s">
         <v>1299</v>
       </c>
@@ -16778,8 +18612,11 @@
       <c r="J606" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="607" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B607" t="s">
         <v>1301</v>
       </c>
@@ -16798,8 +18635,11 @@
       <c r="J607" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="608" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B608" t="s">
         <v>1303</v>
       </c>
@@ -16817,6 +18657,43 @@
       </c>
       <c r="J608" t="s">
         <v>18</v>
+      </c>
+      <c r="K608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C609" t="s">
+        <v>193</v>
+      </c>
+      <c r="D609" t="s">
+        <v>16</v>
+      </c>
+      <c r="J609" t="s">
+        <v>18</v>
+      </c>
+      <c r="N609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D610" t="s">
+        <v>16</v>
+      </c>
+      <c r="J610" t="s">
+        <v>18</v>
+      </c>
+      <c r="K610">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/База.xlsx
+++ b/data/База.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\TT\PingPong-Bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B294ABC-82DD-4AFA-B5DC-03257FC6E687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD46E6A-4170-4BEA-B2FC-5003C5F5F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25770" yWindow="4530" windowWidth="25770" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4305,11 +4305,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="F609" sqref="F609"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="A609" sqref="A609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/data/База.xlsx
+++ b/data/База.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\TT\PingPong-Bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD46E6A-4170-4BEA-B2FC-5003C5F5F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C656B6D0-750B-4313-B286-158172DEFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="4530" windowWidth="25770" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="4530" windowWidth="25770" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1317">
   <si>
     <t>ID</t>
   </si>
@@ -3941,6 +3941,36 @@
   </si>
   <si>
     <t>Богданов Роман</t>
+  </si>
+  <si>
+    <t>Мартиросян</t>
+  </si>
+  <si>
+    <t>Гаянэ</t>
+  </si>
+  <si>
+    <t>2003-06-15</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Нелли</t>
+  </si>
+  <si>
+    <t>2004-10-25</t>
+  </si>
+  <si>
+    <t>Гриченко</t>
+  </si>
+  <si>
+    <t>1990-01-26</t>
+  </si>
+  <si>
+    <t>Исаев</t>
+  </si>
+  <si>
+    <t>2004-03-25</t>
   </si>
 </sst>
 </file>
@@ -4303,16 +4333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N610"/>
+  <dimension ref="A1:N614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="A609" sqref="A609"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4369,7 +4394,7 @@
         <v>16</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -4512,9 +4537,6 @@
       <c r="E8">
         <v>565</v>
       </c>
-      <c r="F8">
-        <v>262</v>
-      </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
@@ -4582,7 +4604,7 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -4607,9 +4629,6 @@
       <c r="E12">
         <v>811</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
@@ -4815,7 +4834,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5030,9 +5049,6 @@
       <c r="E30">
         <v>9</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="H30" t="s">
         <v>94</v>
       </c>
@@ -5123,7 +5139,7 @@
         <v>16</v>
       </c>
       <c r="E34">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H34" t="s">
         <v>105</v>
@@ -5194,9 +5210,6 @@
       <c r="E37">
         <v>742</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="H37" t="s">
         <v>111</v>
       </c>
@@ -5218,7 +5231,7 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
         <v>114</v>
@@ -5341,9 +5354,6 @@
       <c r="E43">
         <v>99</v>
       </c>
-      <c r="F43">
-        <v>54</v>
-      </c>
       <c r="H43" t="s">
         <v>128</v>
       </c>
@@ -5457,7 +5467,7 @@
         <v>16</v>
       </c>
       <c r="E48">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H48" t="s">
         <v>138</v>
@@ -5580,9 +5590,6 @@
       <c r="E53">
         <v>16</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="H53" t="s">
         <v>149</v>
       </c>
@@ -6006,9 +6013,6 @@
       <c r="E71">
         <v>17</v>
       </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
       <c r="H71" t="s">
         <v>195</v>
       </c>
@@ -6029,9 +6033,6 @@
       <c r="E72">
         <v>464</v>
       </c>
-      <c r="F72">
-        <v>201</v>
-      </c>
       <c r="H72" t="s">
         <v>197</v>
       </c>
@@ -6078,9 +6079,6 @@
       <c r="E74">
         <v>1573</v>
       </c>
-      <c r="F74">
-        <v>30</v>
-      </c>
       <c r="H74" t="s">
         <v>202</v>
       </c>
@@ -6219,9 +6217,6 @@
       <c r="E80">
         <v>85</v>
       </c>
-      <c r="F80">
-        <v>50</v>
-      </c>
       <c r="H80" t="s">
         <v>215</v>
       </c>
@@ -6243,7 +6238,7 @@
         <v>16</v>
       </c>
       <c r="E81">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F81">
         <v>245</v>
@@ -6504,9 +6499,6 @@
       <c r="E92">
         <v>4</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
       <c r="H92" t="s">
         <v>243</v>
       </c>
@@ -6579,9 +6571,6 @@
       <c r="E95">
         <v>77</v>
       </c>
-      <c r="F95">
-        <v>11</v>
-      </c>
       <c r="H95" t="s">
         <v>249</v>
       </c>
@@ -6907,9 +6896,6 @@
       <c r="E109">
         <v>533</v>
       </c>
-      <c r="F109">
-        <v>4</v>
-      </c>
       <c r="H109" t="s">
         <v>280</v>
       </c>
@@ -7285,10 +7271,7 @@
         <v>16</v>
       </c>
       <c r="E125">
-        <v>123</v>
-      </c>
-      <c r="F125">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="H125" t="s">
         <v>315</v>
@@ -7406,7 +7389,7 @@
         <v>16</v>
       </c>
       <c r="E130">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F130">
         <v>201</v>
@@ -7460,9 +7443,6 @@
       <c r="E132">
         <v>123</v>
       </c>
-      <c r="F132">
-        <v>68</v>
-      </c>
       <c r="H132" t="s">
         <v>332</v>
       </c>
@@ -7651,7 +7631,7 @@
         <v>258</v>
       </c>
       <c r="F140">
-        <v>707</v>
+        <v>50</v>
       </c>
       <c r="H140" t="s">
         <v>349</v>
@@ -7702,9 +7682,6 @@
       <c r="E142">
         <v>109</v>
       </c>
-      <c r="F142">
-        <v>16</v>
-      </c>
       <c r="H142" t="s">
         <v>354</v>
       </c>
@@ -8210,10 +8187,7 @@
         <v>16</v>
       </c>
       <c r="E163">
-        <v>138</v>
-      </c>
-      <c r="F163">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="H163" t="s">
         <v>398</v>
@@ -8282,7 +8256,7 @@
         <v>16</v>
       </c>
       <c r="E166">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H166" t="s">
         <v>406</v>
@@ -8514,9 +8488,6 @@
       <c r="E176">
         <v>51</v>
       </c>
-      <c r="F176">
-        <v>2</v>
-      </c>
       <c r="H176" t="s">
         <v>426</v>
       </c>
@@ -8900,9 +8871,6 @@
       <c r="E192">
         <v>16</v>
       </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
       <c r="H192" t="s">
         <v>456</v>
       </c>
@@ -8999,7 +8967,7 @@
         <v>16</v>
       </c>
       <c r="E196">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H196" t="s">
         <v>464</v>
@@ -9384,9 +9352,6 @@
       <c r="E212">
         <v>182</v>
       </c>
-      <c r="F212">
-        <v>22</v>
-      </c>
       <c r="H212" t="s">
         <v>495</v>
       </c>
@@ -9408,7 +9373,7 @@
         <v>16</v>
       </c>
       <c r="E213">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H213" t="s">
         <v>497</v>
@@ -9643,9 +9608,6 @@
       <c r="E223">
         <v>1</v>
       </c>
-      <c r="F223">
-        <v>524</v>
-      </c>
       <c r="H223" t="s">
         <v>516</v>
       </c>
@@ -9797,7 +9759,7 @@
         <v>28</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H229" t="s">
         <v>526</v>
@@ -9886,7 +9848,7 @@
         <v>16</v>
       </c>
       <c r="E233">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H233" t="s">
         <v>534</v>
@@ -9909,7 +9871,7 @@
         <v>16</v>
       </c>
       <c r="E234">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H234" t="s">
         <v>537</v>
@@ -10196,9 +10158,6 @@
       <c r="E246">
         <v>459</v>
       </c>
-      <c r="F246">
-        <v>19</v>
-      </c>
       <c r="H246" t="s">
         <v>562</v>
       </c>
@@ -10528,7 +10487,7 @@
         <v>16</v>
       </c>
       <c r="E260">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H260" t="s">
         <v>590</v>
@@ -10571,7 +10530,7 @@
         <v>16</v>
       </c>
       <c r="E262">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H262" t="s">
         <v>594</v>
@@ -11693,7 +11652,7 @@
         <v>16</v>
       </c>
       <c r="E310">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H310" t="s">
         <v>686</v>
@@ -11833,9 +11792,6 @@
       <c r="E316">
         <v>167</v>
       </c>
-      <c r="F316">
-        <v>69</v>
-      </c>
       <c r="H316" t="s">
         <v>696</v>
       </c>
@@ -11928,9 +11884,6 @@
       <c r="E320">
         <v>858</v>
       </c>
-      <c r="F320">
-        <v>505</v>
-      </c>
       <c r="H320" t="s">
         <v>705</v>
       </c>
@@ -12069,9 +12022,6 @@
       <c r="E326">
         <v>750</v>
       </c>
-      <c r="F326">
-        <v>833</v>
-      </c>
       <c r="H326" t="s">
         <v>718</v>
       </c>
@@ -12139,7 +12089,7 @@
         <v>16</v>
       </c>
       <c r="E329">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H329" t="s">
         <v>724</v>
@@ -12162,7 +12112,7 @@
         <v>16</v>
       </c>
       <c r="E330">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H330" t="s">
         <v>726</v>
@@ -12717,10 +12667,7 @@
         <v>16</v>
       </c>
       <c r="E354">
-        <v>470</v>
-      </c>
-      <c r="F354">
-        <v>168</v>
+        <v>487</v>
       </c>
       <c r="H354" t="s">
         <v>774</v>
@@ -12791,9 +12738,6 @@
       <c r="E357">
         <v>8</v>
       </c>
-      <c r="F357">
-        <v>8</v>
-      </c>
       <c r="H357" t="s">
         <v>779</v>
       </c>
@@ -12861,10 +12805,7 @@
         <v>16</v>
       </c>
       <c r="E360">
-        <v>321</v>
-      </c>
-      <c r="F360">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="H360" t="s">
         <v>784</v>
@@ -12942,7 +12883,7 @@
         <v>16</v>
       </c>
       <c r="E363">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H363" t="s">
         <v>790</v>
@@ -13224,7 +13165,7 @@
         <v>16</v>
       </c>
       <c r="E375">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F375">
         <v>197</v>
@@ -13623,9 +13564,6 @@
       <c r="E392">
         <v>580</v>
       </c>
-      <c r="F392">
-        <v>422</v>
-      </c>
       <c r="H392" t="s">
         <v>845</v>
       </c>
@@ -13693,7 +13631,7 @@
         <v>16</v>
       </c>
       <c r="E395">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H395" t="s">
         <v>849</v>
@@ -13785,7 +13723,7 @@
         <v>16</v>
       </c>
       <c r="E399">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H399" t="s">
         <v>857</v>
@@ -14030,7 +13968,7 @@
         <v>76</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H409" t="s">
         <v>879</v>
@@ -14124,9 +14062,6 @@
       <c r="E413">
         <v>99</v>
       </c>
-      <c r="F413">
-        <v>18</v>
-      </c>
       <c r="H413" t="s">
         <v>885</v>
       </c>
@@ -14633,9 +14568,6 @@
       <c r="E435">
         <v>127</v>
       </c>
-      <c r="F435">
-        <v>60</v>
-      </c>
       <c r="H435" t="s">
         <v>929</v>
       </c>
@@ -14872,9 +14804,6 @@
       <c r="E445">
         <v>98</v>
       </c>
-      <c r="F445">
-        <v>13</v>
-      </c>
       <c r="H445" t="s">
         <v>946</v>
       </c>
@@ -14921,9 +14850,6 @@
       <c r="E447">
         <v>54</v>
       </c>
-      <c r="F447">
-        <v>0</v>
-      </c>
       <c r="H447" t="s">
         <v>951</v>
       </c>
@@ -14970,6 +14896,9 @@
       <c r="E449">
         <v>104</v>
       </c>
+      <c r="F449">
+        <v>51</v>
+      </c>
       <c r="H449" t="s">
         <v>957</v>
       </c>
@@ -15224,7 +15153,7 @@
         <v>956</v>
       </c>
       <c r="E460">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H460" t="s">
         <v>613</v>
@@ -15275,6 +15204,9 @@
       <c r="E462">
         <v>173</v>
       </c>
+      <c r="F462">
+        <v>113</v>
+      </c>
       <c r="H462" t="s">
         <v>996</v>
       </c>
@@ -15321,6 +15253,9 @@
       <c r="E464">
         <v>237</v>
       </c>
+      <c r="F464">
+        <v>296</v>
+      </c>
       <c r="H464" t="s">
         <v>1001</v>
       </c>
@@ -15439,6 +15374,9 @@
       <c r="E469">
         <v>1</v>
       </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
       <c r="H469" t="s">
         <v>1013</v>
       </c>
@@ -15531,6 +15469,9 @@
       <c r="E473">
         <v>397</v>
       </c>
+      <c r="F473">
+        <v>298</v>
+      </c>
       <c r="H473" t="s">
         <v>1024</v>
       </c>
@@ -15627,7 +15568,10 @@
         <v>956</v>
       </c>
       <c r="E477">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="F477">
+        <v>33</v>
       </c>
       <c r="H477" t="s">
         <v>1034</v>
@@ -15678,6 +15622,9 @@
       <c r="E479">
         <v>142</v>
       </c>
+      <c r="F479">
+        <v>71</v>
+      </c>
       <c r="H479" t="s">
         <v>1039</v>
       </c>
@@ -15773,6 +15720,9 @@
       <c r="E483">
         <v>294</v>
       </c>
+      <c r="F483">
+        <v>255</v>
+      </c>
       <c r="H483" t="s">
         <v>1049</v>
       </c>
@@ -15822,6 +15772,9 @@
       <c r="E485">
         <v>7</v>
       </c>
+      <c r="F485">
+        <v>11</v>
+      </c>
       <c r="H485" t="s">
         <v>1054</v>
       </c>
@@ -15958,7 +15911,10 @@
         <v>956</v>
       </c>
       <c r="E491">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="F491">
+        <v>5</v>
       </c>
       <c r="H491" t="s">
         <v>1066</v>
@@ -15983,6 +15939,9 @@
       <c r="E492">
         <v>145</v>
       </c>
+      <c r="F492">
+        <v>126</v>
+      </c>
       <c r="H492" t="s">
         <v>1068</v>
       </c>
@@ -16147,6 +16106,9 @@
       <c r="E499">
         <v>57</v>
       </c>
+      <c r="F499">
+        <v>22</v>
+      </c>
       <c r="H499" t="s">
         <v>1086</v>
       </c>
@@ -16193,6 +16155,9 @@
       <c r="E501">
         <v>792</v>
       </c>
+      <c r="F501">
+        <v>744</v>
+      </c>
       <c r="H501" t="s">
         <v>1089</v>
       </c>
@@ -16216,6 +16181,9 @@
       <c r="E502">
         <v>33</v>
       </c>
+      <c r="F502">
+        <v>15</v>
+      </c>
       <c r="H502" t="s">
         <v>1092</v>
       </c>
@@ -16237,7 +16205,10 @@
         <v>956</v>
       </c>
       <c r="E503">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F503">
+        <v>22</v>
       </c>
       <c r="H503" t="s">
         <v>1095</v>
@@ -16265,6 +16236,9 @@
       <c r="E504">
         <v>4</v>
       </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
       <c r="H504" t="s">
         <v>1096</v>
       </c>
@@ -16286,7 +16260,10 @@
         <v>956</v>
       </c>
       <c r="E505">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="F505">
+        <v>146</v>
       </c>
       <c r="H505" t="s">
         <v>1098</v>
@@ -16429,6 +16406,9 @@
       <c r="E511">
         <v>49</v>
       </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
       <c r="H511" t="s">
         <v>1109</v>
       </c>
@@ -16496,7 +16476,7 @@
         <v>956</v>
       </c>
       <c r="E514">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H514" t="s">
         <v>1117</v>
@@ -16662,6 +16642,9 @@
       <c r="E521">
         <v>37</v>
       </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
       <c r="H521" t="s">
         <v>1133</v>
       </c>
@@ -16708,6 +16691,9 @@
       <c r="E523">
         <v>704</v>
       </c>
+      <c r="F523">
+        <v>535</v>
+      </c>
       <c r="H523" t="s">
         <v>1137</v>
       </c>
@@ -16780,6 +16766,9 @@
       <c r="E526">
         <v>144</v>
       </c>
+      <c r="F526">
+        <v>109</v>
+      </c>
       <c r="H526" t="s">
         <v>1142</v>
       </c>
@@ -16852,6 +16841,9 @@
       <c r="E529">
         <v>204</v>
       </c>
+      <c r="F529">
+        <v>20</v>
+      </c>
       <c r="H529" t="s">
         <v>1148</v>
       </c>
@@ -16899,7 +16891,7 @@
         <v>956</v>
       </c>
       <c r="E531">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H531" t="s">
         <v>1152</v>
@@ -16927,6 +16919,9 @@
       <c r="E532">
         <v>6</v>
       </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
       <c r="H532" t="s">
         <v>1154</v>
       </c>
@@ -16971,7 +16966,7 @@
         <v>956</v>
       </c>
       <c r="E534">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H534" t="s">
         <v>1159</v>
@@ -17160,6 +17155,9 @@
       <c r="E542">
         <v>26</v>
       </c>
+      <c r="F542">
+        <v>11</v>
+      </c>
       <c r="H542" t="s">
         <v>1176</v>
       </c>
@@ -17232,6 +17230,9 @@
       <c r="E545">
         <v>141</v>
       </c>
+      <c r="F545">
+        <v>90</v>
+      </c>
       <c r="H545" t="s">
         <v>1182</v>
       </c>
@@ -17416,6 +17417,9 @@
       <c r="E553">
         <v>24</v>
       </c>
+      <c r="F553">
+        <v>6</v>
+      </c>
       <c r="H553" t="s">
         <v>1198</v>
       </c>
@@ -17488,6 +17492,9 @@
       <c r="E556">
         <v>5</v>
       </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
       <c r="H556" t="s">
         <v>1203</v>
       </c>
@@ -17718,6 +17725,9 @@
       <c r="E566">
         <v>165</v>
       </c>
+      <c r="F566">
+        <v>79</v>
+      </c>
       <c r="H566" t="s">
         <v>1221</v>
       </c>
@@ -17787,6 +17797,9 @@
       <c r="E569">
         <v>57</v>
       </c>
+      <c r="F569">
+        <v>9</v>
+      </c>
       <c r="H569" t="s">
         <v>1227</v>
       </c>
@@ -17879,6 +17892,9 @@
       <c r="E573">
         <v>41</v>
       </c>
+      <c r="F573">
+        <v>10</v>
+      </c>
       <c r="H573" t="s">
         <v>1235</v>
       </c>
@@ -17948,6 +17964,9 @@
       <c r="E576">
         <v>326</v>
       </c>
+      <c r="F576">
+        <v>95</v>
+      </c>
       <c r="H576" t="s">
         <v>1240</v>
       </c>
@@ -17997,6 +18016,9 @@
       <c r="E578">
         <v>67</v>
       </c>
+      <c r="F578">
+        <v>8</v>
+      </c>
       <c r="H578" t="s">
         <v>982</v>
       </c>
@@ -18064,7 +18086,10 @@
         <v>956</v>
       </c>
       <c r="E581">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="F581">
+        <v>73</v>
       </c>
       <c r="H581" t="s">
         <v>1250</v>
@@ -18138,6 +18163,9 @@
       <c r="E584">
         <v>8</v>
       </c>
+      <c r="F584">
+        <v>0</v>
+      </c>
       <c r="H584" t="s">
         <v>1257</v>
       </c>
@@ -18207,6 +18235,9 @@
       <c r="E587">
         <v>339</v>
       </c>
+      <c r="F587">
+        <v>276</v>
+      </c>
       <c r="H587" t="s">
         <v>1263</v>
       </c>
@@ -18299,6 +18330,9 @@
       <c r="E591">
         <v>98</v>
       </c>
+      <c r="F591">
+        <v>28</v>
+      </c>
       <c r="H591" t="s">
         <v>1269</v>
       </c>
@@ -18391,6 +18425,9 @@
       <c r="E595">
         <v>1</v>
       </c>
+      <c r="F595">
+        <v>0</v>
+      </c>
       <c r="H595" t="s">
         <v>1277</v>
       </c>
@@ -18735,6 +18772,86 @@
       </c>
       <c r="K610">
         <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D611" t="s">
+        <v>956</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="H611" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J611" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D612" t="s">
+        <v>956</v>
+      </c>
+      <c r="E612">
+        <v>2</v>
+      </c>
+      <c r="H612" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J612" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B613" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C613" t="s">
+        <v>193</v>
+      </c>
+      <c r="D613" t="s">
+        <v>16</v>
+      </c>
+      <c r="E613">
+        <v>3</v>
+      </c>
+      <c r="H613" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J613" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C614" t="s">
+        <v>63</v>
+      </c>
+      <c r="D614" t="s">
+        <v>16</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="H614" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J614" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/База.xlsx
+++ b/data/База.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\TT\PingPong-Bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C656B6D0-750B-4313-B286-158172DEFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB82A6-32EB-469C-9F00-68078600B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="4530" windowWidth="25770" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23670" yWindow="0" windowWidth="14835" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1318">
   <si>
     <t>ID</t>
   </si>
@@ -3971,6 +3971,9 @@
   </si>
   <si>
     <t>2004-03-25</t>
+  </si>
+  <si>
+    <t>Телефон</t>
   </si>
 </sst>
 </file>
@@ -3999,7 +4002,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4022,13 +4025,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4333,13 +4352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N614"/>
+  <dimension ref="A1:O614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4382,8 +4403,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -4406,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -4429,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -4452,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -4475,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -4524,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -4547,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -4570,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -4593,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -4616,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -4639,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -4662,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -4685,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -4708,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -7933,6 +7957,9 @@
       <c r="K152">
         <v>1</v>
       </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
       <c r="M152">
         <v>1</v>
       </c>
@@ -18770,7 +18797,7 @@
       <c r="J610" t="s">
         <v>18</v>
       </c>
-      <c r="K610">
+      <c r="N610">
         <v>1</v>
       </c>
     </row>
@@ -18793,6 +18820,9 @@
       <c r="J611" t="s">
         <v>18</v>
       </c>
+      <c r="K611">
+        <v>1</v>
+      </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B612" t="s">
@@ -18813,6 +18843,9 @@
       <c r="J612" t="s">
         <v>18</v>
       </c>
+      <c r="K612">
+        <v>1</v>
+      </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B613" t="s">
@@ -18833,6 +18866,9 @@
       <c r="J613" t="s">
         <v>18</v>
       </c>
+      <c r="K613">
+        <v>1</v>
+      </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B614" t="s">
@@ -18852,6 +18888,9 @@
       </c>
       <c r="J614" t="s">
         <v>18</v>
+      </c>
+      <c r="K614">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
